--- a/Testing and Admin/testbed/Historical Transactions/Historical Transactions.xlsx
+++ b/Testing and Admin/testbed/Historical Transactions/Historical Transactions.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rybot\Desktop\Design Programs\.VSC Projects\lifestyleanalysisv2\Testing and Admin\testbed\Historical Transactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59A3529-41AB-4C85-B8FF-17D7CAE0FC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905CF476-4628-4983-8F1E-442D13E4F6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B8D07FC4-7D1D-49DD-ABE7-ADFCB5E59BE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{B8D07FC4-7D1D-49DD-ABE7-ADFCB5E59BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="All Transactions" sheetId="1" r:id="rId1"/>
-    <sheet name="Auto Categorize" sheetId="2" r:id="rId2"/>
-    <sheet name="Categories" sheetId="3" r:id="rId3"/>
-    <sheet name="Cleaning Accounts" sheetId="5" r:id="rId4"/>
+    <sheet name="Chart Idea" sheetId="6" r:id="rId2"/>
+    <sheet name="Auto Categorize" sheetId="2" r:id="rId3"/>
+    <sheet name="Categories" sheetId="3" r:id="rId4"/>
+    <sheet name="Cleaning Accounts" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Transactions'!$A$1:$F$839</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="376">
   <si>
     <t>Credit Card Transaction</t>
   </si>
@@ -1651,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F839"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G183" sqref="G183"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" activeCellId="1" sqref="A1:A1048576 E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18480,6 +18481,9280 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDFF2B3-1D5B-4E0A-9F4A-43B60A3E6CE8}">
+  <dimension ref="A1:C839"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5">
+        <v>45564.776388888888</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-19.25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
+        <v>45564.727777777778</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-9.25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5">
+        <v>45564.713194444441</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>45564.603472222225</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5">
+        <v>45564.6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-9.2100000000000009</v>
+      </c>
+      <c r="C6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
+        <v>45564.070138888892</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-25.32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <v>45563.739583333336</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-25.26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <v>45562.810416666667</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-27.88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5">
+        <v>45562.786111111112</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-13.04</v>
+      </c>
+      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5">
+        <v>45562.761805555558</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-5.25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5">
+        <v>45562.760416666664</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-5.25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5">
+        <v>45562.722916666666</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5">
+        <v>45562.635416666664</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-19.25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5">
+        <v>45562.629166666666</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5">
+        <v>45562.565972222219</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>45562.223611111112</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-150</v>
+      </c>
+      <c r="C17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5">
+        <v>45562.142361111109</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-700</v>
+      </c>
+      <c r="C18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5">
+        <v>45561.675694444442</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-16.32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5">
+        <v>45561.634027777778</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5">
+        <v>45561.410416666666</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-2000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5">
+        <v>45561.35833333333</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5">
+        <v>45560.654166666667</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-5.89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5">
+        <v>45560.645833333336</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-3.88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5">
+        <v>45560.630555555559</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5">
+        <v>45560.462500000001</v>
+      </c>
+      <c r="B26" s="2">
+        <v>490.49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5">
+        <v>45560.359722222223</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-6.67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5">
+        <v>45559.890277777777</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-7.46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5">
+        <v>45559.740277777775</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-3.19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5">
+        <v>45559.636111111111</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5">
+        <v>45559.361805555556</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5">
+        <v>45559.248611111114</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-25.01</v>
+      </c>
+      <c r="C32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5">
+        <v>45559.14166666667</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-19.52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5">
+        <v>45559.004861111112</v>
+      </c>
+      <c r="B34" s="2">
+        <v>-10.99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5">
+        <v>45558.631249999999</v>
+      </c>
+      <c r="B35" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5">
+        <v>45558.356944444444</v>
+      </c>
+      <c r="B36" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5">
+        <v>45557.703472222223</v>
+      </c>
+      <c r="B37" s="2">
+        <v>-40.090000000000003</v>
+      </c>
+      <c r="C37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5">
+        <v>45557.657638888886</v>
+      </c>
+      <c r="B38" s="2">
+        <v>-18.41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5">
+        <v>45557.565972222219</v>
+      </c>
+      <c r="B39" s="2">
+        <v>-5.99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5">
+        <v>45557.290972222225</v>
+      </c>
+      <c r="B40" s="2">
+        <v>-157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5">
+        <v>45556.861805555556</v>
+      </c>
+      <c r="B41" s="2">
+        <v>-5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5">
+        <v>45556.006249999999</v>
+      </c>
+      <c r="B42" s="2">
+        <v>-9.99</v>
+      </c>
+      <c r="C42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5">
+        <v>45555.359027777777</v>
+      </c>
+      <c r="B43" s="2">
+        <v>-6.3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5">
+        <v>45555.196527777778</v>
+      </c>
+      <c r="B44" s="2">
+        <v>-850</v>
+      </c>
+      <c r="C44" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="5">
+        <v>45554.753472222219</v>
+      </c>
+      <c r="B45" s="2">
+        <v>-16.05</v>
+      </c>
+      <c r="C45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="5">
+        <v>45554.683333333334</v>
+      </c>
+      <c r="B46" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="5">
+        <v>45554.65</v>
+      </c>
+      <c r="B47" s="2">
+        <v>-4.87</v>
+      </c>
+      <c r="C47" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="5">
+        <v>45554.63958333333</v>
+      </c>
+      <c r="B48" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5">
+        <v>45554.378472222219</v>
+      </c>
+      <c r="B49" s="2">
+        <v>502.91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5">
+        <v>45554.36041666667</v>
+      </c>
+      <c r="B50" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="5">
+        <v>45554.140972222223</v>
+      </c>
+      <c r="B51" s="2">
+        <v>-200</v>
+      </c>
+      <c r="C51" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5">
+        <v>45553.744444444441</v>
+      </c>
+      <c r="B52" s="2">
+        <v>-1.99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5">
+        <v>45553.628472222219</v>
+      </c>
+      <c r="B53" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5">
+        <v>45552.760416666664</v>
+      </c>
+      <c r="B54" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5">
+        <v>45552.74722222222</v>
+      </c>
+      <c r="B55" s="2">
+        <v>-1.99</v>
+      </c>
+      <c r="C55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5">
+        <v>45552.646527777775</v>
+      </c>
+      <c r="B56" s="2">
+        <v>-7.24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="5">
+        <v>45552.627083333333</v>
+      </c>
+      <c r="B57" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="5">
+        <v>45551.953472222223</v>
+      </c>
+      <c r="B58" s="2">
+        <v>-5.24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="5">
+        <v>45551.941666666666</v>
+      </c>
+      <c r="B59" s="2">
+        <v>-12.98</v>
+      </c>
+      <c r="C59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="5">
+        <v>45551.732638888891</v>
+      </c>
+      <c r="B60" s="2">
+        <v>-1.89</v>
+      </c>
+      <c r="C60" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="5">
+        <v>45551.631249999999</v>
+      </c>
+      <c r="B61" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="5">
+        <v>45551.36041666667</v>
+      </c>
+      <c r="B62" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="5">
+        <v>45550.788194444445</v>
+      </c>
+      <c r="B63" s="2">
+        <v>-5.31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="5">
+        <v>45549.790972222225</v>
+      </c>
+      <c r="B64" s="2">
+        <v>-21.71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="5">
+        <v>45549.767361111109</v>
+      </c>
+      <c r="B65" s="2">
+        <v>-37.68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="5">
+        <v>45549.758333333331</v>
+      </c>
+      <c r="B66" s="2">
+        <v>-34.61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="5">
+        <v>45549.75</v>
+      </c>
+      <c r="B67" s="2">
+        <v>-7.38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="5">
+        <v>45549.736805555556</v>
+      </c>
+      <c r="B68" s="2">
+        <v>-1.08</v>
+      </c>
+      <c r="C68" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="5">
+        <v>45549.724305555559</v>
+      </c>
+      <c r="B69" s="2">
+        <v>-73.05</v>
+      </c>
+      <c r="C69" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="5">
+        <v>45549.688888888886</v>
+      </c>
+      <c r="B70" s="2">
+        <v>-84.21</v>
+      </c>
+      <c r="C70" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="5">
+        <v>45549.630555555559</v>
+      </c>
+      <c r="B71" s="2">
+        <v>-17.989999999999998</v>
+      </c>
+      <c r="C71" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="5">
+        <v>45549.259027777778</v>
+      </c>
+      <c r="B72" s="2">
+        <v>-5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="5">
+        <v>45548.35833333333</v>
+      </c>
+      <c r="B73" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="5">
+        <v>45547.734722222223</v>
+      </c>
+      <c r="B74" s="2">
+        <v>-3.31</v>
+      </c>
+      <c r="C74" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="5">
+        <v>45547.633333333331</v>
+      </c>
+      <c r="B75" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="5">
+        <v>45547.632638888892</v>
+      </c>
+      <c r="B76" s="2">
+        <v>-3.91</v>
+      </c>
+      <c r="C76" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="5">
+        <v>45546.894444444442</v>
+      </c>
+      <c r="B77" s="2">
+        <v>522.98</v>
+      </c>
+      <c r="C77" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="5">
+        <v>45546.765972222223</v>
+      </c>
+      <c r="B78" s="2">
+        <v>-62.99</v>
+      </c>
+      <c r="C78" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="5">
+        <v>45546.765972222223</v>
+      </c>
+      <c r="B79" s="2">
+        <v>-62.99</v>
+      </c>
+      <c r="C79" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="5">
+        <v>45546.762499999997</v>
+      </c>
+      <c r="B80" s="2">
+        <v>-4.99</v>
+      </c>
+      <c r="C80" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="5">
+        <v>45546.64166666667</v>
+      </c>
+      <c r="B81" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="5">
+        <v>45546.640972222223</v>
+      </c>
+      <c r="B82" s="2">
+        <v>-4.34</v>
+      </c>
+      <c r="C82" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="5">
+        <v>45546.173611111109</v>
+      </c>
+      <c r="B83" s="2">
+        <v>-50</v>
+      </c>
+      <c r="C83" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="5">
+        <v>45545.727777777778</v>
+      </c>
+      <c r="B84" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="5">
+        <v>45545.710416666669</v>
+      </c>
+      <c r="B85" s="2">
+        <v>-15.79</v>
+      </c>
+      <c r="C85" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="5">
+        <v>45544.644444444442</v>
+      </c>
+      <c r="B86" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="5">
+        <v>45544.088194444441</v>
+      </c>
+      <c r="B87" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="5">
+        <v>45543.875</v>
+      </c>
+      <c r="B88" s="2">
+        <v>-22.94</v>
+      </c>
+      <c r="C88" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="5">
+        <v>45543.697916666664</v>
+      </c>
+      <c r="B89" s="2">
+        <v>-48.63</v>
+      </c>
+      <c r="C89" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="5">
+        <v>45543.658333333333</v>
+      </c>
+      <c r="B90" s="2">
+        <v>-54.26</v>
+      </c>
+      <c r="C90" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="5">
+        <v>45542.45208333333</v>
+      </c>
+      <c r="B91" s="2">
+        <v>-4.1100000000000003</v>
+      </c>
+      <c r="C91" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="5">
+        <v>45542.44027777778</v>
+      </c>
+      <c r="B92" s="2">
+        <v>-40</v>
+      </c>
+      <c r="C92" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="5">
+        <v>45541.823611111111</v>
+      </c>
+      <c r="B93" s="2">
+        <v>-5.58</v>
+      </c>
+      <c r="C93" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="5">
+        <v>45541.143055555556</v>
+      </c>
+      <c r="B94" s="2">
+        <v>-25</v>
+      </c>
+      <c r="C94" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="5">
+        <v>45540.651388888888</v>
+      </c>
+      <c r="B95" s="2">
+        <v>-4.58</v>
+      </c>
+      <c r="C95" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="5">
+        <v>45539.520138888889</v>
+      </c>
+      <c r="B96" s="2">
+        <v>547.79</v>
+      </c>
+      <c r="C96" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="5">
+        <v>45539.20208333333</v>
+      </c>
+      <c r="B97" s="2">
+        <v>-200</v>
+      </c>
+      <c r="C97" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="5">
+        <v>45538.904861111114</v>
+      </c>
+      <c r="B98" s="2">
+        <v>-341</v>
+      </c>
+      <c r="C98" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="5">
+        <v>45538.658333333333</v>
+      </c>
+      <c r="B99" s="2">
+        <v>-7.06</v>
+      </c>
+      <c r="C99" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="5">
+        <v>45538.186805555553</v>
+      </c>
+      <c r="B100" s="2">
+        <v>-23.86</v>
+      </c>
+      <c r="C100" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="5">
+        <v>45537.760416666664</v>
+      </c>
+      <c r="B101" s="2">
+        <v>-10.01</v>
+      </c>
+      <c r="C101" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="5">
+        <v>45537.634027777778</v>
+      </c>
+      <c r="B102" s="2">
+        <v>-6.48</v>
+      </c>
+      <c r="C102" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="5">
+        <v>45536.762499999997</v>
+      </c>
+      <c r="B103" s="2">
+        <v>-5.03</v>
+      </c>
+      <c r="C103" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="5">
+        <v>45536.680555555555</v>
+      </c>
+      <c r="B104" s="2">
+        <v>-13.39</v>
+      </c>
+      <c r="C104" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="5">
+        <v>45535.815972222219</v>
+      </c>
+      <c r="B105" s="2">
+        <v>-48.67</v>
+      </c>
+      <c r="C105" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="5">
+        <v>45535.036111111112</v>
+      </c>
+      <c r="B106" s="2">
+        <v>-95</v>
+      </c>
+      <c r="C106" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="5">
+        <v>45535.019444444442</v>
+      </c>
+      <c r="B107" s="2">
+        <v>-9.9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="5">
+        <v>45534.627083333333</v>
+      </c>
+      <c r="B108" s="2">
+        <v>-21.13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="5">
+        <v>45534.384722222225</v>
+      </c>
+      <c r="B109" s="2">
+        <v>-224.93</v>
+      </c>
+      <c r="C109" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="5">
+        <v>45534.35833333333</v>
+      </c>
+      <c r="B110" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="5">
+        <v>45533.729166666664</v>
+      </c>
+      <c r="B111" s="2">
+        <v>-3.31</v>
+      </c>
+      <c r="C111" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="5">
+        <v>45533.665972222225</v>
+      </c>
+      <c r="B112" s="2">
+        <v>-12.29</v>
+      </c>
+      <c r="C112" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="5">
+        <v>45533.359027777777</v>
+      </c>
+      <c r="B113" s="2">
+        <v>-12.49</v>
+      </c>
+      <c r="C113" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="5">
+        <v>45532.667361111111</v>
+      </c>
+      <c r="B114" s="2">
+        <v>769.78</v>
+      </c>
+      <c r="C114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="5">
+        <v>45532.660416666666</v>
+      </c>
+      <c r="B115" s="2">
+        <v>-10.39</v>
+      </c>
+      <c r="C115" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="5">
+        <v>45532.217361111114</v>
+      </c>
+      <c r="B116" s="2">
+        <v>-150</v>
+      </c>
+      <c r="C116" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="5">
+        <v>45531.759722222225</v>
+      </c>
+      <c r="B117" s="2">
+        <v>-10.92</v>
+      </c>
+      <c r="C117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="5">
+        <v>45531.734027777777</v>
+      </c>
+      <c r="B118" s="2">
+        <v>-31.57</v>
+      </c>
+      <c r="C118" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="5">
+        <v>45531.621527777781</v>
+      </c>
+      <c r="B119" s="2">
+        <v>-11.99</v>
+      </c>
+      <c r="C119" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="5">
+        <v>45531.339583333334</v>
+      </c>
+      <c r="B120" s="2">
+        <v>-11.85</v>
+      </c>
+      <c r="C120" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="5">
+        <v>45531.154861111114</v>
+      </c>
+      <c r="B121" s="2">
+        <v>-157.19</v>
+      </c>
+      <c r="C121" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="5">
+        <v>45530.912499999999</v>
+      </c>
+      <c r="B122" s="2">
+        <v>-5.2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="5">
+        <v>45530.865277777775</v>
+      </c>
+      <c r="B123" s="2">
+        <v>-61.22</v>
+      </c>
+      <c r="C123" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="5">
+        <v>45530.357638888891</v>
+      </c>
+      <c r="B124" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="5">
+        <v>45530.186111111114</v>
+      </c>
+      <c r="B125" s="2">
+        <v>-24.64</v>
+      </c>
+      <c r="C125" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="5">
+        <v>45529.756249999999</v>
+      </c>
+      <c r="B126" s="2">
+        <v>-141.30000000000001</v>
+      </c>
+      <c r="C126" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="5">
+        <v>45529.73541666667</v>
+      </c>
+      <c r="B127" s="2">
+        <v>-67.569999999999993</v>
+      </c>
+      <c r="C127" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="5">
+        <v>45529.541666666664</v>
+      </c>
+      <c r="B128" s="2">
+        <v>-9.77</v>
+      </c>
+      <c r="C128" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="5">
+        <v>45529.482638888891</v>
+      </c>
+      <c r="B129" s="2">
+        <v>-13.49</v>
+      </c>
+      <c r="C129" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="5">
+        <v>45529.464583333334</v>
+      </c>
+      <c r="B130" s="2">
+        <v>-6.49</v>
+      </c>
+      <c r="C130" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="5">
+        <v>45528.848611111112</v>
+      </c>
+      <c r="B131" s="2">
+        <v>-18.510000000000002</v>
+      </c>
+      <c r="C131" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="5">
+        <v>45528.796527777777</v>
+      </c>
+      <c r="B132" s="2">
+        <v>-37.840000000000003</v>
+      </c>
+      <c r="C132" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="5">
+        <v>45528.728472222225</v>
+      </c>
+      <c r="B133" s="2">
+        <v>-114.89</v>
+      </c>
+      <c r="C133" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="5">
+        <v>45528.004861111112</v>
+      </c>
+      <c r="B134" s="2">
+        <v>-10.99</v>
+      </c>
+      <c r="C134" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="5">
+        <v>45527.879861111112</v>
+      </c>
+      <c r="B135" s="2">
+        <v>-13.77</v>
+      </c>
+      <c r="C135" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="5">
+        <v>45526.762499999997</v>
+      </c>
+      <c r="B136" s="2">
+        <v>-3.98</v>
+      </c>
+      <c r="C136" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="5">
+        <v>45526.56527777778</v>
+      </c>
+      <c r="B137" s="2">
+        <v>-5.99</v>
+      </c>
+      <c r="C137" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="5">
+        <v>45525.915277777778</v>
+      </c>
+      <c r="B138" s="2">
+        <v>-24.82</v>
+      </c>
+      <c r="C138" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="5">
+        <v>45525.761111111111</v>
+      </c>
+      <c r="B139" s="2">
+        <v>402.61</v>
+      </c>
+      <c r="C139" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="5">
+        <v>45525.357638888891</v>
+      </c>
+      <c r="B140" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="5">
+        <v>45525.092361111114</v>
+      </c>
+      <c r="B141" s="2">
+        <v>-5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="5">
+        <v>45524.852777777778</v>
+      </c>
+      <c r="B142" s="2">
+        <v>-67.319999999999993</v>
+      </c>
+      <c r="C142" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="5">
+        <v>45524.359027777777</v>
+      </c>
+      <c r="B143" s="2">
+        <v>-7.76</v>
+      </c>
+      <c r="C143" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="5">
+        <v>45522.886111111111</v>
+      </c>
+      <c r="B144" s="2">
+        <v>-7.33</v>
+      </c>
+      <c r="C144" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="5">
+        <v>45521.863194444442</v>
+      </c>
+      <c r="B145" s="2">
+        <v>-24.63</v>
+      </c>
+      <c r="C145" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="5">
+        <v>45521.831944444442</v>
+      </c>
+      <c r="B146" s="2">
+        <v>-142.26</v>
+      </c>
+      <c r="C146" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="5">
+        <v>45520.370138888888</v>
+      </c>
+      <c r="B147" s="2">
+        <v>-6.67</v>
+      </c>
+      <c r="C147" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="5">
+        <v>45519.798611111109</v>
+      </c>
+      <c r="B148" s="2">
+        <v>-31.51</v>
+      </c>
+      <c r="C148" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="5">
+        <v>45519.363888888889</v>
+      </c>
+      <c r="B149" s="2">
+        <v>423.66</v>
+      </c>
+      <c r="C149" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="5">
+        <v>45518.836111111108</v>
+      </c>
+      <c r="B150" s="2">
+        <v>-5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="5">
+        <v>45518.797222222223</v>
+      </c>
+      <c r="B151" s="2">
+        <v>-13.67</v>
+      </c>
+      <c r="C151" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="5">
+        <v>45518.630555555559</v>
+      </c>
+      <c r="B152" s="2">
+        <v>-17.989999999999998</v>
+      </c>
+      <c r="C152" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="5">
+        <v>45518.184027777781</v>
+      </c>
+      <c r="B153" s="2">
+        <v>-10.19</v>
+      </c>
+      <c r="C153" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="5">
+        <v>45518.140277777777</v>
+      </c>
+      <c r="B154" s="2">
+        <v>-25.61</v>
+      </c>
+      <c r="C154" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="5">
+        <v>45517.15</v>
+      </c>
+      <c r="B155" s="2">
+        <v>-50</v>
+      </c>
+      <c r="C155" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="5">
+        <v>45516.537499999999</v>
+      </c>
+      <c r="B156" s="2">
+        <v>-9.9499999999999993</v>
+      </c>
+      <c r="C156" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="5">
+        <v>45512.72152777778</v>
+      </c>
+      <c r="B157" s="2">
+        <v>-9.4700000000000006</v>
+      </c>
+      <c r="C157" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="5">
+        <v>45512.709027777775</v>
+      </c>
+      <c r="B158" s="2">
+        <v>-3.73</v>
+      </c>
+      <c r="C158" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="5">
+        <v>45512.382638888892</v>
+      </c>
+      <c r="B159" s="2">
+        <v>-6.14</v>
+      </c>
+      <c r="C159" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="5">
+        <v>45511.884722222225</v>
+      </c>
+      <c r="B160" s="2">
+        <v>-8.61</v>
+      </c>
+      <c r="C160" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="5">
+        <v>45511.790972222225</v>
+      </c>
+      <c r="B161" s="2">
+        <v>648.54</v>
+      </c>
+      <c r="C161" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="5">
+        <v>45511.363888888889</v>
+      </c>
+      <c r="B162" s="2">
+        <v>-6.3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="5">
+        <v>45510.790972222225</v>
+      </c>
+      <c r="B163" s="2">
+        <v>-27.88</v>
+      </c>
+      <c r="C163" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="5">
+        <v>45510.741666666669</v>
+      </c>
+      <c r="B164" s="2">
+        <v>-1688.45</v>
+      </c>
+      <c r="C164" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="5">
+        <v>45510.361111111109</v>
+      </c>
+      <c r="B165" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="5">
+        <v>45509.530555555553</v>
+      </c>
+      <c r="B166" s="2">
+        <v>-25</v>
+      </c>
+      <c r="C166" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="5">
+        <v>45509.072916666664</v>
+      </c>
+      <c r="B167" s="2">
+        <v>-110</v>
+      </c>
+      <c r="C167" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="5">
+        <v>45508.765972222223</v>
+      </c>
+      <c r="B168" s="2">
+        <v>-20.79</v>
+      </c>
+      <c r="C168" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="5">
+        <v>45507.398611111108</v>
+      </c>
+      <c r="B169" s="2">
+        <v>-17.45</v>
+      </c>
+      <c r="C169" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="5">
+        <v>45506.584027777775</v>
+      </c>
+      <c r="B170" s="2">
+        <v>-21.73</v>
+      </c>
+      <c r="C170" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="5">
+        <v>45506.145138888889</v>
+      </c>
+      <c r="B171" s="2">
+        <v>-400</v>
+      </c>
+      <c r="C171" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="5">
+        <v>45505.756249999999</v>
+      </c>
+      <c r="B172" s="2">
+        <v>-3.25</v>
+      </c>
+      <c r="C172" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="5">
+        <v>45505.728472222225</v>
+      </c>
+      <c r="B173" s="2">
+        <v>-341</v>
+      </c>
+      <c r="C173" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="5">
+        <v>45505.561111111114</v>
+      </c>
+      <c r="B174" s="2">
+        <v>629.91999999999996</v>
+      </c>
+      <c r="C174" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="5">
+        <v>45504.802083333336</v>
+      </c>
+      <c r="B175" s="2">
+        <v>-24.33</v>
+      </c>
+      <c r="C175" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="5">
+        <v>45503.378472222219</v>
+      </c>
+      <c r="B176" s="2">
+        <v>-224.93</v>
+      </c>
+      <c r="C176" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="5">
+        <v>45503.36041666667</v>
+      </c>
+      <c r="B177" s="2">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="C177" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="5">
+        <v>45503.22152777778</v>
+      </c>
+      <c r="B178" s="2">
+        <v>-150</v>
+      </c>
+      <c r="C178" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="5">
+        <v>45502.445138888892</v>
+      </c>
+      <c r="B179" s="2">
+        <v>-89.1</v>
+      </c>
+      <c r="C179" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="5">
+        <v>45501.818055555559</v>
+      </c>
+      <c r="B180" s="2">
+        <v>-10.85</v>
+      </c>
+      <c r="C180" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="5">
+        <v>45501</v>
+      </c>
+      <c r="B181" s="2">
+        <v>-3.79</v>
+      </c>
+      <c r="C181" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="5">
+        <v>45501</v>
+      </c>
+      <c r="B182" s="2">
+        <v>-11.39</v>
+      </c>
+      <c r="C182" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="5">
+        <v>45500.179861111108</v>
+      </c>
+      <c r="B183" s="2">
+        <v>-93.43</v>
+      </c>
+      <c r="C183" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="5">
+        <v>45499.895138888889</v>
+      </c>
+      <c r="B184" s="2">
+        <v>-12.48</v>
+      </c>
+      <c r="C184" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="5">
+        <v>45499.865277777775</v>
+      </c>
+      <c r="B185" s="2">
+        <v>-5.32</v>
+      </c>
+      <c r="C185" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="5">
+        <v>45499.849305555559</v>
+      </c>
+      <c r="B186" s="2">
+        <v>-48.88</v>
+      </c>
+      <c r="C186" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="5">
+        <v>45499.78402777778</v>
+      </c>
+      <c r="B187" s="2">
+        <v>-7.81</v>
+      </c>
+      <c r="C187" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="5">
+        <v>45499</v>
+      </c>
+      <c r="B188" s="2">
+        <v>-7.35</v>
+      </c>
+      <c r="C188" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="5">
+        <v>45498.695138888892</v>
+      </c>
+      <c r="B189" s="2">
+        <v>647.09</v>
+      </c>
+      <c r="C189" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="5">
+        <v>45498.359722222223</v>
+      </c>
+      <c r="B190" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="5">
+        <v>45497</v>
+      </c>
+      <c r="B191" s="2">
+        <v>-7.07</v>
+      </c>
+      <c r="C191" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="5">
+        <v>45495</v>
+      </c>
+      <c r="B192" s="2">
+        <v>-71.61</v>
+      </c>
+      <c r="C192" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="5">
+        <v>45495</v>
+      </c>
+      <c r="B193" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C193" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="5">
+        <v>45495</v>
+      </c>
+      <c r="B194" s="2">
+        <v>-17.57</v>
+      </c>
+      <c r="C194" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="5">
+        <v>45494</v>
+      </c>
+      <c r="B195" s="2">
+        <v>-30.75</v>
+      </c>
+      <c r="C195" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="5">
+        <v>45494</v>
+      </c>
+      <c r="B196" s="2">
+        <v>-78.069999999999993</v>
+      </c>
+      <c r="C196" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="5">
+        <v>45494</v>
+      </c>
+      <c r="B197" s="2">
+        <v>-16.28</v>
+      </c>
+      <c r="C197" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="5">
+        <v>45494</v>
+      </c>
+      <c r="B198" s="2">
+        <v>-44.97</v>
+      </c>
+      <c r="C198" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="5">
+        <v>45494</v>
+      </c>
+      <c r="B199" s="2">
+        <v>-34.75</v>
+      </c>
+      <c r="C199" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="5">
+        <v>45493</v>
+      </c>
+      <c r="B200" s="2">
+        <v>-22.91</v>
+      </c>
+      <c r="C200" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B201" s="2">
+        <v>-13.83</v>
+      </c>
+      <c r="C201" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="5">
+        <v>45490</v>
+      </c>
+      <c r="B202" s="2">
+        <v>-15</v>
+      </c>
+      <c r="C202" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="5">
+        <v>45489</v>
+      </c>
+      <c r="B203" s="2">
+        <v>-14.15</v>
+      </c>
+      <c r="C203" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="5">
+        <v>45489</v>
+      </c>
+      <c r="B204" s="2">
+        <v>-23.38</v>
+      </c>
+      <c r="C204" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="5">
+        <v>45489</v>
+      </c>
+      <c r="B205" s="2">
+        <v>-89.06</v>
+      </c>
+      <c r="C205" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="5">
+        <v>45488</v>
+      </c>
+      <c r="B206" s="2">
+        <v>-10.8</v>
+      </c>
+      <c r="C206" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="5">
+        <v>45487</v>
+      </c>
+      <c r="B207" s="2">
+        <v>-18.45</v>
+      </c>
+      <c r="C207" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="5">
+        <v>45487</v>
+      </c>
+      <c r="B208" s="2">
+        <v>-16.45</v>
+      </c>
+      <c r="C208" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="5">
+        <v>45487</v>
+      </c>
+      <c r="B209" s="2">
+        <v>-11.14</v>
+      </c>
+      <c r="C209" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="5">
+        <v>45486</v>
+      </c>
+      <c r="B210" s="2">
+        <v>-40</v>
+      </c>
+      <c r="C210" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="5">
+        <v>45485</v>
+      </c>
+      <c r="B211" s="2">
+        <v>-5.45</v>
+      </c>
+      <c r="C211" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="5">
+        <v>45485</v>
+      </c>
+      <c r="B212" s="2">
+        <v>-28.91</v>
+      </c>
+      <c r="C212" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="5">
+        <v>45484</v>
+      </c>
+      <c r="B213" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C213" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="5">
+        <v>45484</v>
+      </c>
+      <c r="B214" s="2">
+        <v>-6.74</v>
+      </c>
+      <c r="C214" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="5">
+        <v>45484</v>
+      </c>
+      <c r="B215" s="2">
+        <v>-18.55</v>
+      </c>
+      <c r="C215" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="5">
+        <v>45483</v>
+      </c>
+      <c r="B216" s="2">
+        <v>-54.25</v>
+      </c>
+      <c r="C216" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="5">
+        <v>45483</v>
+      </c>
+      <c r="B217" s="2">
+        <v>-14.11</v>
+      </c>
+      <c r="C217" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="5">
+        <v>45482</v>
+      </c>
+      <c r="B218" s="2">
+        <v>-4.34</v>
+      </c>
+      <c r="C218" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="5">
+        <v>45482</v>
+      </c>
+      <c r="B219" s="2">
+        <v>-20</v>
+      </c>
+      <c r="C219" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="5">
+        <v>45480</v>
+      </c>
+      <c r="B220" s="2">
+        <v>-11.05</v>
+      </c>
+      <c r="C220" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="5">
+        <v>45479</v>
+      </c>
+      <c r="B221" s="2">
+        <v>-2</v>
+      </c>
+      <c r="C221" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="5">
+        <v>45479</v>
+      </c>
+      <c r="B222" s="2">
+        <v>-4.9400000000000004</v>
+      </c>
+      <c r="C222" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="5">
+        <v>45478</v>
+      </c>
+      <c r="B223" s="2">
+        <v>-20.62</v>
+      </c>
+      <c r="C223" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="5">
+        <v>45478</v>
+      </c>
+      <c r="B224" s="2">
+        <v>-5.19</v>
+      </c>
+      <c r="C224" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="5">
+        <v>45475</v>
+      </c>
+      <c r="B225" s="2">
+        <v>-58.09</v>
+      </c>
+      <c r="C225" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="5">
+        <v>45475</v>
+      </c>
+      <c r="B226" s="2">
+        <v>-58.09</v>
+      </c>
+      <c r="C226" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="5">
+        <v>45475</v>
+      </c>
+      <c r="B227" s="2">
+        <v>-13.23</v>
+      </c>
+      <c r="C227" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="5">
+        <v>45474</v>
+      </c>
+      <c r="B228" s="2">
+        <v>-341</v>
+      </c>
+      <c r="C228" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="5">
+        <v>45474</v>
+      </c>
+      <c r="B229" s="2">
+        <v>-16.29</v>
+      </c>
+      <c r="C229" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="5">
+        <v>45473</v>
+      </c>
+      <c r="B230" s="2">
+        <v>-199.99</v>
+      </c>
+      <c r="C230" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="5">
+        <v>45472</v>
+      </c>
+      <c r="B231" s="2">
+        <v>-8.56</v>
+      </c>
+      <c r="C231" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="5">
+        <v>45472</v>
+      </c>
+      <c r="B232" s="2">
+        <v>-27.72</v>
+      </c>
+      <c r="C232" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="5">
+        <v>45470</v>
+      </c>
+      <c r="B233" s="2">
+        <v>-71.900000000000006</v>
+      </c>
+      <c r="C233" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="5">
+        <v>45469</v>
+      </c>
+      <c r="B234" s="2">
+        <v>-3</v>
+      </c>
+      <c r="C234" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="5">
+        <v>45469</v>
+      </c>
+      <c r="B235" s="2">
+        <v>-10.88</v>
+      </c>
+      <c r="C235" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="5">
+        <v>45468</v>
+      </c>
+      <c r="B236" s="2">
+        <v>-15.18</v>
+      </c>
+      <c r="C236" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="5">
+        <v>45467</v>
+      </c>
+      <c r="B237" s="2">
+        <v>-3.95</v>
+      </c>
+      <c r="C237" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="5">
+        <v>45467</v>
+      </c>
+      <c r="B238" s="2">
+        <v>-7.35</v>
+      </c>
+      <c r="C238" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="5">
+        <v>45467</v>
+      </c>
+      <c r="B239" s="2">
+        <v>-34.22</v>
+      </c>
+      <c r="C239" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="5">
+        <v>45465</v>
+      </c>
+      <c r="B240" s="2">
+        <v>-60.41</v>
+      </c>
+      <c r="C240" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="5">
+        <v>45465</v>
+      </c>
+      <c r="B241" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C241" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="5">
+        <v>45464</v>
+      </c>
+      <c r="B242" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C242" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="5">
+        <v>45464</v>
+      </c>
+      <c r="B243" s="2">
+        <v>-31.48</v>
+      </c>
+      <c r="C243" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="5">
+        <v>45464</v>
+      </c>
+      <c r="B244" s="2">
+        <v>-5.83</v>
+      </c>
+      <c r="C244" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="5">
+        <v>45463</v>
+      </c>
+      <c r="B245" s="2">
+        <v>-20.170000000000002</v>
+      </c>
+      <c r="C245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="5">
+        <v>45462</v>
+      </c>
+      <c r="B246" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C246" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="5">
+        <v>45460</v>
+      </c>
+      <c r="B247" s="2">
+        <v>-15</v>
+      </c>
+      <c r="C247" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="5">
+        <v>45458</v>
+      </c>
+      <c r="B248" s="2">
+        <v>-18.45</v>
+      </c>
+      <c r="C248" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="5">
+        <v>45458</v>
+      </c>
+      <c r="B249" s="2">
+        <v>-13.58</v>
+      </c>
+      <c r="C249" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="5">
+        <v>45458</v>
+      </c>
+      <c r="B250" s="2">
+        <v>-140.54</v>
+      </c>
+      <c r="C250" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="5">
+        <v>45457</v>
+      </c>
+      <c r="B251" s="2">
+        <v>-7.35</v>
+      </c>
+      <c r="C251" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="5">
+        <v>45457</v>
+      </c>
+      <c r="B252" s="2">
+        <v>-29.76</v>
+      </c>
+      <c r="C252" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="5">
+        <v>45456</v>
+      </c>
+      <c r="B253" s="2">
+        <v>-7.35</v>
+      </c>
+      <c r="C253" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="5">
+        <v>45455</v>
+      </c>
+      <c r="B254" s="2">
+        <v>-28.7</v>
+      </c>
+      <c r="C254" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="5">
+        <v>45455</v>
+      </c>
+      <c r="B255" s="2">
+        <v>-67.209999999999994</v>
+      </c>
+      <c r="C255" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="5">
+        <v>45455</v>
+      </c>
+      <c r="B256" s="2">
+        <v>-7.58</v>
+      </c>
+      <c r="C256" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="5">
+        <v>45453</v>
+      </c>
+      <c r="B257" s="2">
+        <v>-8.51</v>
+      </c>
+      <c r="C257" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="5">
+        <v>45453</v>
+      </c>
+      <c r="B258" s="2">
+        <v>-83.59</v>
+      </c>
+      <c r="C258" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="5">
+        <v>45452</v>
+      </c>
+      <c r="B259" s="2">
+        <v>-10.62</v>
+      </c>
+      <c r="C259" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="5">
+        <v>45452</v>
+      </c>
+      <c r="B260" s="2">
+        <v>-79.88</v>
+      </c>
+      <c r="C260" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="5">
+        <v>45452</v>
+      </c>
+      <c r="B261" s="2">
+        <v>-16.079999999999998</v>
+      </c>
+      <c r="C261" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="5">
+        <v>45452</v>
+      </c>
+      <c r="B262" s="2">
+        <v>-300</v>
+      </c>
+      <c r="C262" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="5">
+        <v>45452</v>
+      </c>
+      <c r="B263" s="2">
+        <v>-48.44</v>
+      </c>
+      <c r="C263" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="5">
+        <v>45451</v>
+      </c>
+      <c r="B264" s="2">
+        <v>-13.58</v>
+      </c>
+      <c r="C264" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="5">
+        <v>45449</v>
+      </c>
+      <c r="B265" s="2">
+        <v>-2</v>
+      </c>
+      <c r="C265" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="5">
+        <v>45449</v>
+      </c>
+      <c r="B266" s="2">
+        <v>-7.35</v>
+      </c>
+      <c r="C266" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="5">
+        <v>45448</v>
+      </c>
+      <c r="B267" s="2">
+        <v>-7.35</v>
+      </c>
+      <c r="C267" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="5">
+        <v>45448</v>
+      </c>
+      <c r="B268" s="2">
+        <v>-35.880000000000003</v>
+      </c>
+      <c r="C268" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="5">
+        <v>45447</v>
+      </c>
+      <c r="B269" s="2">
+        <v>-7.35</v>
+      </c>
+      <c r="C269" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="5">
+        <v>45446</v>
+      </c>
+      <c r="B270" s="2">
+        <v>-7.35</v>
+      </c>
+      <c r="C270" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="5">
+        <v>45446</v>
+      </c>
+      <c r="B271" s="2">
+        <v>-341</v>
+      </c>
+      <c r="C271" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="5">
+        <v>45446</v>
+      </c>
+      <c r="B272" s="2">
+        <v>-4.07</v>
+      </c>
+      <c r="C272" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="5">
+        <v>45446</v>
+      </c>
+      <c r="B273" s="2">
+        <v>-20.059999999999999</v>
+      </c>
+      <c r="C273" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="5">
+        <v>45443</v>
+      </c>
+      <c r="B274" s="2">
+        <v>-7.35</v>
+      </c>
+      <c r="C274" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="5">
+        <v>45443</v>
+      </c>
+      <c r="B275" s="2">
+        <v>-40</v>
+      </c>
+      <c r="C275" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="5">
+        <v>45443</v>
+      </c>
+      <c r="B276" s="2">
+        <v>-49</v>
+      </c>
+      <c r="C276" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="5">
+        <v>45442</v>
+      </c>
+      <c r="B277" s="2">
+        <v>-7.35</v>
+      </c>
+      <c r="C277" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="5">
+        <v>45440</v>
+      </c>
+      <c r="B278" s="2">
+        <v>-48.91</v>
+      </c>
+      <c r="C278" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="5">
+        <v>45439</v>
+      </c>
+      <c r="B279" s="2">
+        <v>-57.51</v>
+      </c>
+      <c r="C279" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="5">
+        <v>45439</v>
+      </c>
+      <c r="B280" s="2">
+        <v>-3.91</v>
+      </c>
+      <c r="C280" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="5">
+        <v>45439</v>
+      </c>
+      <c r="B281" s="2">
+        <v>-20</v>
+      </c>
+      <c r="C281" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="5">
+        <v>45439</v>
+      </c>
+      <c r="B282" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C282" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="5">
+        <v>45437</v>
+      </c>
+      <c r="B283" s="2">
+        <v>-16.27</v>
+      </c>
+      <c r="C283" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="5">
+        <v>45437</v>
+      </c>
+      <c r="B284" s="2">
+        <v>-28.18</v>
+      </c>
+      <c r="C284" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="5">
+        <v>45436</v>
+      </c>
+      <c r="B285" s="2">
+        <v>-9.0399999999999991</v>
+      </c>
+      <c r="C285" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="5">
+        <v>45434</v>
+      </c>
+      <c r="B286" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C286" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="5">
+        <v>45433</v>
+      </c>
+      <c r="B287" s="2">
+        <v>-1.78</v>
+      </c>
+      <c r="C287" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="5">
+        <v>45432</v>
+      </c>
+      <c r="B288" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C288" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="5">
+        <v>45432</v>
+      </c>
+      <c r="B289" s="2">
+        <v>-6.73</v>
+      </c>
+      <c r="C289" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="5">
+        <v>45432</v>
+      </c>
+      <c r="B290" s="2">
+        <v>-41.25</v>
+      </c>
+      <c r="C290" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="5">
+        <v>45429</v>
+      </c>
+      <c r="B291" s="2">
+        <v>-40</v>
+      </c>
+      <c r="C291" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="5">
+        <v>45429</v>
+      </c>
+      <c r="B292" s="2">
+        <v>-12.56</v>
+      </c>
+      <c r="C292" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="5">
+        <v>45429</v>
+      </c>
+      <c r="B293" s="2">
+        <v>-3.49</v>
+      </c>
+      <c r="C293" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="5">
+        <v>45429</v>
+      </c>
+      <c r="B294" s="2">
+        <v>-15</v>
+      </c>
+      <c r="C294" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="5">
+        <v>45428</v>
+      </c>
+      <c r="B295" s="2">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="C295" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="5">
+        <v>45427</v>
+      </c>
+      <c r="B296" s="2">
+        <v>-7.35</v>
+      </c>
+      <c r="C296" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="5">
+        <v>45427</v>
+      </c>
+      <c r="B297" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C297" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="5">
+        <v>45427</v>
+      </c>
+      <c r="B298" s="2">
+        <v>-27.59</v>
+      </c>
+      <c r="C298" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="5">
+        <v>45426</v>
+      </c>
+      <c r="B299" s="2">
+        <v>-7.35</v>
+      </c>
+      <c r="C299" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="5">
+        <v>45426</v>
+      </c>
+      <c r="B300" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C300" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="5">
+        <v>45425</v>
+      </c>
+      <c r="B301" s="2">
+        <v>-7.35</v>
+      </c>
+      <c r="C301" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="5">
+        <v>45424</v>
+      </c>
+      <c r="B302" s="2">
+        <v>-6.07</v>
+      </c>
+      <c r="C302" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="5">
+        <v>45423</v>
+      </c>
+      <c r="B303" s="2">
+        <v>-18.77</v>
+      </c>
+      <c r="C303" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="5">
+        <v>45422</v>
+      </c>
+      <c r="B304" s="2">
+        <v>-7.35</v>
+      </c>
+      <c r="C304" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="5">
+        <v>45421</v>
+      </c>
+      <c r="B305" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C305" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="5">
+        <v>45421</v>
+      </c>
+      <c r="B306" s="2">
+        <v>-11.42</v>
+      </c>
+      <c r="C306" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="5">
+        <v>45420</v>
+      </c>
+      <c r="B307" s="2">
+        <v>-7.35</v>
+      </c>
+      <c r="C307" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="5">
+        <v>45419</v>
+      </c>
+      <c r="B308" s="2">
+        <v>-28.14</v>
+      </c>
+      <c r="C308" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="5">
+        <v>45418</v>
+      </c>
+      <c r="B309" s="2">
+        <v>-2</v>
+      </c>
+      <c r="C309" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="5">
+        <v>45418</v>
+      </c>
+      <c r="B310" s="2">
+        <v>-31.38</v>
+      </c>
+      <c r="C310" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="5">
+        <v>45418</v>
+      </c>
+      <c r="B311" s="2">
+        <v>-8.68</v>
+      </c>
+      <c r="C311" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="5">
+        <v>45417</v>
+      </c>
+      <c r="B312" s="2">
+        <v>-1.08</v>
+      </c>
+      <c r="C312" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="5">
+        <v>45417</v>
+      </c>
+      <c r="B313" s="2">
+        <v>-1.08</v>
+      </c>
+      <c r="C313" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="5">
+        <v>45417</v>
+      </c>
+      <c r="B314" s="2">
+        <v>-18.45</v>
+      </c>
+      <c r="C314" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="5">
+        <v>45416</v>
+      </c>
+      <c r="B315" s="2">
+        <v>-14.6</v>
+      </c>
+      <c r="C315" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="5">
+        <v>45416</v>
+      </c>
+      <c r="B316" s="2">
+        <v>-6.99</v>
+      </c>
+      <c r="C316" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="5">
+        <v>45415</v>
+      </c>
+      <c r="B317" s="2">
+        <v>-6.26</v>
+      </c>
+      <c r="C317" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="5">
+        <v>45414</v>
+      </c>
+      <c r="B318" s="2">
+        <v>-6.26</v>
+      </c>
+      <c r="C318" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="5">
+        <v>45414</v>
+      </c>
+      <c r="B319" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C319" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="5">
+        <v>45414</v>
+      </c>
+      <c r="B320" s="2">
+        <v>-9.23</v>
+      </c>
+      <c r="C320" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="5">
+        <v>45414</v>
+      </c>
+      <c r="B321" s="2">
+        <v>-13.6</v>
+      </c>
+      <c r="C321" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="5">
+        <v>45413</v>
+      </c>
+      <c r="B322" s="2">
+        <v>-341</v>
+      </c>
+      <c r="C322" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="5">
+        <v>45412</v>
+      </c>
+      <c r="B323" s="2">
+        <v>-14.68</v>
+      </c>
+      <c r="C323" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="5">
+        <v>45410</v>
+      </c>
+      <c r="B324" s="2">
+        <v>-5.95</v>
+      </c>
+      <c r="C324" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="5">
+        <v>45410</v>
+      </c>
+      <c r="B325" s="2">
+        <v>-3.47</v>
+      </c>
+      <c r="C325" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="5">
+        <v>45409</v>
+      </c>
+      <c r="B326" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C326" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="5">
+        <v>45409</v>
+      </c>
+      <c r="B327" s="2">
+        <v>-10.210000000000001</v>
+      </c>
+      <c r="C327" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="5">
+        <v>45409</v>
+      </c>
+      <c r="B328" s="2">
+        <v>-12.35</v>
+      </c>
+      <c r="C328" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="5">
+        <v>45409</v>
+      </c>
+      <c r="B329" s="2">
+        <v>-6.87</v>
+      </c>
+      <c r="C329" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="5">
+        <v>45409</v>
+      </c>
+      <c r="B330" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C330" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="5">
+        <v>45408</v>
+      </c>
+      <c r="B331" s="2">
+        <v>-11.06</v>
+      </c>
+      <c r="C331" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="5">
+        <v>45408</v>
+      </c>
+      <c r="B332" s="2">
+        <v>-33.25</v>
+      </c>
+      <c r="C332" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="5">
+        <v>45408</v>
+      </c>
+      <c r="B333" s="2">
+        <v>-31.88</v>
+      </c>
+      <c r="C333" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="5">
+        <v>45408</v>
+      </c>
+      <c r="B334" s="2">
+        <v>-46.73</v>
+      </c>
+      <c r="C334" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="5">
+        <v>45407</v>
+      </c>
+      <c r="B335" s="2">
+        <v>-7.28</v>
+      </c>
+      <c r="C335" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="5">
+        <v>45407</v>
+      </c>
+      <c r="B336" s="2">
+        <v>-8.7899999999999991</v>
+      </c>
+      <c r="C336" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="5">
+        <v>45406</v>
+      </c>
+      <c r="B337" s="2">
+        <v>-11.79</v>
+      </c>
+      <c r="C337" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="5">
+        <v>45405</v>
+      </c>
+      <c r="B338" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C338" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="5">
+        <v>45405</v>
+      </c>
+      <c r="B339" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C339" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="5">
+        <v>45405</v>
+      </c>
+      <c r="B340" s="2">
+        <v>-8.25</v>
+      </c>
+      <c r="C340" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="5">
+        <v>45404</v>
+      </c>
+      <c r="B341" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C341" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="5">
+        <v>45401</v>
+      </c>
+      <c r="B342" s="2">
+        <v>-7.02</v>
+      </c>
+      <c r="C342" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="5">
+        <v>45400</v>
+      </c>
+      <c r="B343" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C343" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="5">
+        <v>45400</v>
+      </c>
+      <c r="B344" s="2">
+        <v>-2.19</v>
+      </c>
+      <c r="C344" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="5">
+        <v>45400</v>
+      </c>
+      <c r="B345" s="2">
+        <v>-11.42</v>
+      </c>
+      <c r="C345" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="5">
+        <v>45399</v>
+      </c>
+      <c r="B346" s="2">
+        <v>-7.02</v>
+      </c>
+      <c r="C346" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="5">
+        <v>45398</v>
+      </c>
+      <c r="B347" s="2">
+        <v>-13.17</v>
+      </c>
+      <c r="C347" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="5">
+        <v>45398</v>
+      </c>
+      <c r="B348" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C348" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="5">
+        <v>45397</v>
+      </c>
+      <c r="B349" s="2">
+        <v>-17</v>
+      </c>
+      <c r="C349" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="5">
+        <v>45396</v>
+      </c>
+      <c r="B350" s="2">
+        <v>-24.15</v>
+      </c>
+      <c r="C350" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="5">
+        <v>45396</v>
+      </c>
+      <c r="B351" s="2">
+        <v>-13.22</v>
+      </c>
+      <c r="C351" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="5">
+        <v>45395</v>
+      </c>
+      <c r="B352" s="2">
+        <v>-34.520000000000003</v>
+      </c>
+      <c r="C352" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="5">
+        <v>45394</v>
+      </c>
+      <c r="B353" s="2">
+        <v>-7.02</v>
+      </c>
+      <c r="C353" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="5">
+        <v>45393</v>
+      </c>
+      <c r="B354" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C354" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="5">
+        <v>45393</v>
+      </c>
+      <c r="B355" s="2">
+        <v>-8.43</v>
+      </c>
+      <c r="C355" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="5">
+        <v>45392</v>
+      </c>
+      <c r="B356" s="2">
+        <v>-4.6900000000000004</v>
+      </c>
+      <c r="C356" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="5">
+        <v>45391</v>
+      </c>
+      <c r="B357" s="2">
+        <v>-7.02</v>
+      </c>
+      <c r="C357" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="5">
+        <v>45391</v>
+      </c>
+      <c r="B358" s="2">
+        <v>-18.989999999999998</v>
+      </c>
+      <c r="C358" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="5">
+        <v>45391</v>
+      </c>
+      <c r="B359" s="2">
+        <v>-25.6</v>
+      </c>
+      <c r="C359" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="5">
+        <v>45389</v>
+      </c>
+      <c r="B360" s="2">
+        <v>-18.28</v>
+      </c>
+      <c r="C360" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="5">
+        <v>45388</v>
+      </c>
+      <c r="B361" s="2">
+        <v>-28.19</v>
+      </c>
+      <c r="C361" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="5">
+        <v>45388</v>
+      </c>
+      <c r="B362" s="2">
+        <v>-465.93</v>
+      </c>
+      <c r="C362" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="5">
+        <v>45388</v>
+      </c>
+      <c r="B363" s="2">
+        <v>-2</v>
+      </c>
+      <c r="C363" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="5">
+        <v>45386</v>
+      </c>
+      <c r="B364" s="2">
+        <v>-10.17</v>
+      </c>
+      <c r="C364" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="5">
+        <v>45386</v>
+      </c>
+      <c r="B365" s="2">
+        <v>-8.67</v>
+      </c>
+      <c r="C365" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="5">
+        <v>45386</v>
+      </c>
+      <c r="B366" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C366" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="5">
+        <v>45385</v>
+      </c>
+      <c r="B367" s="2">
+        <v>-13.35</v>
+      </c>
+      <c r="C367" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="5">
+        <v>45385</v>
+      </c>
+      <c r="B368" s="2">
+        <v>-39.06</v>
+      </c>
+      <c r="C368" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="5">
+        <v>45384</v>
+      </c>
+      <c r="B369" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C369" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="5">
+        <v>45384</v>
+      </c>
+      <c r="B370" s="2">
+        <v>-7.5</v>
+      </c>
+      <c r="C370" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="5">
+        <v>45384</v>
+      </c>
+      <c r="B371" s="2">
+        <v>-25.54</v>
+      </c>
+      <c r="C371" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="5">
+        <v>45383</v>
+      </c>
+      <c r="B372" s="2">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="C372" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="5">
+        <v>45383</v>
+      </c>
+      <c r="B373" s="2">
+        <v>-341</v>
+      </c>
+      <c r="C373" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="5">
+        <v>45383</v>
+      </c>
+      <c r="B374" s="2">
+        <v>-27.64</v>
+      </c>
+      <c r="C374" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="5">
+        <v>45381</v>
+      </c>
+      <c r="B375" s="2">
+        <v>-30</v>
+      </c>
+      <c r="C375" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="5">
+        <v>45381</v>
+      </c>
+      <c r="B376" s="2">
+        <v>-209.65</v>
+      </c>
+      <c r="C376" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="5">
+        <v>45379</v>
+      </c>
+      <c r="B377" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C377" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="5">
+        <v>45379</v>
+      </c>
+      <c r="B378" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C378" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="5">
+        <v>45379</v>
+      </c>
+      <c r="B379" s="2">
+        <v>-10.97</v>
+      </c>
+      <c r="C379" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="5">
+        <v>45378</v>
+      </c>
+      <c r="B380" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C380" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="5">
+        <v>45376</v>
+      </c>
+      <c r="B381" s="2">
+        <v>-11.68</v>
+      </c>
+      <c r="C381" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="5">
+        <v>45376</v>
+      </c>
+      <c r="B382" s="2">
+        <v>-40.18</v>
+      </c>
+      <c r="C382" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="5">
+        <v>45375</v>
+      </c>
+      <c r="B383" s="2">
+        <v>-10.99</v>
+      </c>
+      <c r="C383" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="5">
+        <v>45375</v>
+      </c>
+      <c r="B384" s="2">
+        <v>-344</v>
+      </c>
+      <c r="C384" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="5">
+        <v>45374</v>
+      </c>
+      <c r="B385" s="2">
+        <v>-7.2</v>
+      </c>
+      <c r="C385" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="5">
+        <v>45374</v>
+      </c>
+      <c r="B386" s="2">
+        <v>-25.84</v>
+      </c>
+      <c r="C386" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="5">
+        <v>45374</v>
+      </c>
+      <c r="B387" s="2">
+        <v>-0.05</v>
+      </c>
+      <c r="C387" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="5">
+        <v>45373</v>
+      </c>
+      <c r="B388" s="2">
+        <v>-7.02</v>
+      </c>
+      <c r="C388" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="5">
+        <v>45373</v>
+      </c>
+      <c r="B389" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C389" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="5">
+        <v>45372</v>
+      </c>
+      <c r="B390" s="2">
+        <v>-3.99</v>
+      </c>
+      <c r="C390" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="5">
+        <v>45372</v>
+      </c>
+      <c r="B391" s="2">
+        <v>-7.02</v>
+      </c>
+      <c r="C391" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="5">
+        <v>45372</v>
+      </c>
+      <c r="B392" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C392" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="5">
+        <v>45372</v>
+      </c>
+      <c r="B393" s="2">
+        <v>-11.63</v>
+      </c>
+      <c r="C393" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="5">
+        <v>45372</v>
+      </c>
+      <c r="B394" s="2">
+        <v>-11.86</v>
+      </c>
+      <c r="C394" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="5">
+        <v>45371</v>
+      </c>
+      <c r="B395" s="2">
+        <v>-30.86</v>
+      </c>
+      <c r="C395" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="5">
+        <v>45369</v>
+      </c>
+      <c r="B396" s="2">
+        <v>-26.91</v>
+      </c>
+      <c r="C396" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="5">
+        <v>45368</v>
+      </c>
+      <c r="B397" s="2">
+        <v>-5.2</v>
+      </c>
+      <c r="C397" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="5">
+        <v>45368</v>
+      </c>
+      <c r="B398" s="2">
+        <v>-8.18</v>
+      </c>
+      <c r="C398" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="5">
+        <v>45367</v>
+      </c>
+      <c r="B399" s="2">
+        <v>-11.84</v>
+      </c>
+      <c r="C399" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="5">
+        <v>45367</v>
+      </c>
+      <c r="B400" s="2">
+        <v>-34.19</v>
+      </c>
+      <c r="C400" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="5">
+        <v>45367</v>
+      </c>
+      <c r="B401" s="2">
+        <v>-11.92</v>
+      </c>
+      <c r="C401" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="5">
+        <v>45367</v>
+      </c>
+      <c r="B402" s="2">
+        <v>-4.33</v>
+      </c>
+      <c r="C402" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="5">
+        <v>45367</v>
+      </c>
+      <c r="B403" s="2">
+        <v>-26.06</v>
+      </c>
+      <c r="C403" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="5">
+        <v>45366</v>
+      </c>
+      <c r="B404" s="2">
+        <v>-9.91</v>
+      </c>
+      <c r="C404" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="5">
+        <v>45365</v>
+      </c>
+      <c r="B405" s="2">
+        <v>-2.99</v>
+      </c>
+      <c r="C405" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="5">
+        <v>45363</v>
+      </c>
+      <c r="B406" s="2">
+        <v>-7.02</v>
+      </c>
+      <c r="C406" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="5">
+        <v>45363</v>
+      </c>
+      <c r="B407" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C407" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="5">
+        <v>45363</v>
+      </c>
+      <c r="B408" s="2">
+        <v>-19.38</v>
+      </c>
+      <c r="C408" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="5">
+        <v>45363</v>
+      </c>
+      <c r="B409" s="2">
+        <v>-13.2</v>
+      </c>
+      <c r="C409" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="5">
+        <v>45362</v>
+      </c>
+      <c r="B410" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C410" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="5">
+        <v>45361</v>
+      </c>
+      <c r="B411" s="2">
+        <v>-5.99</v>
+      </c>
+      <c r="C411" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="5">
+        <v>45360</v>
+      </c>
+      <c r="B412" s="2">
+        <v>-53.66</v>
+      </c>
+      <c r="C412" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="5">
+        <v>45360</v>
+      </c>
+      <c r="B413" s="2">
+        <v>-42.47</v>
+      </c>
+      <c r="C413" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="5">
+        <v>45360</v>
+      </c>
+      <c r="B414" s="2">
+        <v>-2.99</v>
+      </c>
+      <c r="C414" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="5">
+        <v>45359</v>
+      </c>
+      <c r="B415" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C415" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="5">
+        <v>45359</v>
+      </c>
+      <c r="B416" s="2">
+        <v>-7.02</v>
+      </c>
+      <c r="C416" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="5">
+        <v>45359</v>
+      </c>
+      <c r="B417" s="2">
+        <v>-4.29</v>
+      </c>
+      <c r="C417" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="5">
+        <v>45359</v>
+      </c>
+      <c r="B418" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C418" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="5">
+        <v>45358</v>
+      </c>
+      <c r="B419" s="2">
+        <v>-19.98</v>
+      </c>
+      <c r="C419" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="5">
+        <v>45358</v>
+      </c>
+      <c r="B420" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C420" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="5">
+        <v>45358</v>
+      </c>
+      <c r="B421" s="2">
+        <v>-7.02</v>
+      </c>
+      <c r="C421" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="5">
+        <v>45358</v>
+      </c>
+      <c r="B422" s="2">
+        <v>-11.97</v>
+      </c>
+      <c r="C422" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="5">
+        <v>45358</v>
+      </c>
+      <c r="B423" s="2">
+        <v>-4.29</v>
+      </c>
+      <c r="C423" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="5">
+        <v>45358</v>
+      </c>
+      <c r="B424" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C424" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="5">
+        <v>45358</v>
+      </c>
+      <c r="B425" s="2">
+        <v>-6.42</v>
+      </c>
+      <c r="C425" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="5">
+        <v>45357</v>
+      </c>
+      <c r="B426" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C426" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="5">
+        <v>45357</v>
+      </c>
+      <c r="B427" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C427" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="5">
+        <v>45357</v>
+      </c>
+      <c r="B428" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C428" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="5">
+        <v>45357</v>
+      </c>
+      <c r="B429" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C429" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="5">
+        <v>45357</v>
+      </c>
+      <c r="B430" s="2">
+        <v>-5.99</v>
+      </c>
+      <c r="C430" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="5">
+        <v>45355</v>
+      </c>
+      <c r="B431" s="2">
+        <v>-341</v>
+      </c>
+      <c r="C431" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="5">
+        <v>45354</v>
+      </c>
+      <c r="B432" s="2">
+        <v>-7.59</v>
+      </c>
+      <c r="C432" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="5">
+        <v>45353</v>
+      </c>
+      <c r="B433" s="2">
+        <v>-12.78</v>
+      </c>
+      <c r="C433" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="5">
+        <v>45353</v>
+      </c>
+      <c r="B434" s="2">
+        <v>-9.67</v>
+      </c>
+      <c r="C434" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="5">
+        <v>45352</v>
+      </c>
+      <c r="B435" s="2">
+        <v>-17.5</v>
+      </c>
+      <c r="C435" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="5">
+        <v>45352</v>
+      </c>
+      <c r="B436" s="2">
+        <v>-2.74</v>
+      </c>
+      <c r="C436" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="5">
+        <v>45352</v>
+      </c>
+      <c r="B437" s="2">
+        <v>-9.52</v>
+      </c>
+      <c r="C437" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="5">
+        <v>45351</v>
+      </c>
+      <c r="B438" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C438" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="5">
+        <v>45351</v>
+      </c>
+      <c r="B439" s="2">
+        <v>-14.7</v>
+      </c>
+      <c r="C439" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="5">
+        <v>45351</v>
+      </c>
+      <c r="B440" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C440" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="5">
+        <v>45351</v>
+      </c>
+      <c r="B441" s="2">
+        <v>-3.52</v>
+      </c>
+      <c r="C441" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="5">
+        <v>45351</v>
+      </c>
+      <c r="B442" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C442" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="5">
+        <v>45350</v>
+      </c>
+      <c r="B443" s="2">
+        <v>-7.02</v>
+      </c>
+      <c r="C443" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="5">
+        <v>45350</v>
+      </c>
+      <c r="B444" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C444" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="5">
+        <v>45350</v>
+      </c>
+      <c r="B445" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C445" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="5">
+        <v>45349</v>
+      </c>
+      <c r="B446" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C446" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="5">
+        <v>45349</v>
+      </c>
+      <c r="B447" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C447" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="5">
+        <v>45349</v>
+      </c>
+      <c r="B448" s="2">
+        <v>-41.84</v>
+      </c>
+      <c r="C448" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="5">
+        <v>45349</v>
+      </c>
+      <c r="B449" s="2">
+        <v>-10.56</v>
+      </c>
+      <c r="C449" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="5">
+        <v>45349</v>
+      </c>
+      <c r="B450" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C450" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="5">
+        <v>45348</v>
+      </c>
+      <c r="B451" s="2">
+        <v>-18.5</v>
+      </c>
+      <c r="C451" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="5">
+        <v>45347</v>
+      </c>
+      <c r="B452" s="2">
+        <v>-7.02</v>
+      </c>
+      <c r="C452" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="5">
+        <v>45347</v>
+      </c>
+      <c r="B453" s="2">
+        <v>-11.08</v>
+      </c>
+      <c r="C453" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="5">
+        <v>45346</v>
+      </c>
+      <c r="B454" s="2">
+        <v>-11.84</v>
+      </c>
+      <c r="C454" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="5">
+        <v>45346</v>
+      </c>
+      <c r="B455" s="2">
+        <v>-3.99</v>
+      </c>
+      <c r="C455" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="5">
+        <v>45346</v>
+      </c>
+      <c r="B456" s="2">
+        <v>-10.48</v>
+      </c>
+      <c r="C456" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="5">
+        <v>45346</v>
+      </c>
+      <c r="B457" s="2">
+        <v>-65.94</v>
+      </c>
+      <c r="C457" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="5">
+        <v>45345</v>
+      </c>
+      <c r="B458" s="2">
+        <v>-7.02</v>
+      </c>
+      <c r="C458" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="5">
+        <v>45345</v>
+      </c>
+      <c r="B459" s="2">
+        <v>-4.29</v>
+      </c>
+      <c r="C459" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="5">
+        <v>45345</v>
+      </c>
+      <c r="B460" s="2">
+        <v>-25</v>
+      </c>
+      <c r="C460" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="5">
+        <v>45344</v>
+      </c>
+      <c r="B461" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C461" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="5">
+        <v>45344</v>
+      </c>
+      <c r="B462" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C462" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="5">
+        <v>45344</v>
+      </c>
+      <c r="B463" s="2">
+        <v>-149.88999999999999</v>
+      </c>
+      <c r="C463" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="5">
+        <v>45344</v>
+      </c>
+      <c r="B464" s="2">
+        <v>-17.25</v>
+      </c>
+      <c r="C464" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="5">
+        <v>45344</v>
+      </c>
+      <c r="B465" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C465" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="5">
+        <v>45343</v>
+      </c>
+      <c r="B466" s="2">
+        <v>-3.99</v>
+      </c>
+      <c r="C466" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="5">
+        <v>45343</v>
+      </c>
+      <c r="B467" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C467" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="5">
+        <v>45343</v>
+      </c>
+      <c r="B468" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C468" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="5">
+        <v>45342</v>
+      </c>
+      <c r="B469" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C469" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="5">
+        <v>45342</v>
+      </c>
+      <c r="B470" s="2">
+        <v>-7.28</v>
+      </c>
+      <c r="C470" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="5">
+        <v>45342</v>
+      </c>
+      <c r="B471" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C471" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="5">
+        <v>45341</v>
+      </c>
+      <c r="B472" s="2">
+        <v>-35</v>
+      </c>
+      <c r="C472" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="5">
+        <v>45341</v>
+      </c>
+      <c r="B473" s="2">
+        <v>-106.72</v>
+      </c>
+      <c r="C473" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="5">
+        <v>45341</v>
+      </c>
+      <c r="B474" s="2">
+        <v>-135.77000000000001</v>
+      </c>
+      <c r="C474" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="5">
+        <v>45341</v>
+      </c>
+      <c r="B475" s="2">
+        <v>-91.23</v>
+      </c>
+      <c r="C475" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="5">
+        <v>45341</v>
+      </c>
+      <c r="B476" s="2">
+        <v>-6.18</v>
+      </c>
+      <c r="C476" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="5">
+        <v>45339</v>
+      </c>
+      <c r="B477" s="2">
+        <v>-11.84</v>
+      </c>
+      <c r="C477" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="5">
+        <v>45339</v>
+      </c>
+      <c r="B478" s="2">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="C478" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="5">
+        <v>45339</v>
+      </c>
+      <c r="B479" s="2">
+        <v>-22.31</v>
+      </c>
+      <c r="C479" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="5">
+        <v>45339</v>
+      </c>
+      <c r="B480" s="2">
+        <v>-22.84</v>
+      </c>
+      <c r="C480" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="5">
+        <v>45338</v>
+      </c>
+      <c r="B481" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C481" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="5">
+        <v>45338</v>
+      </c>
+      <c r="B482" s="2">
+        <v>-4.29</v>
+      </c>
+      <c r="C482" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="5">
+        <v>45338</v>
+      </c>
+      <c r="B483" s="2">
+        <v>-9.99</v>
+      </c>
+      <c r="C483" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="5">
+        <v>45338</v>
+      </c>
+      <c r="B484" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C484" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="5">
+        <v>45337</v>
+      </c>
+      <c r="B485" s="2">
+        <v>-12.36</v>
+      </c>
+      <c r="C485" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="5">
+        <v>45337</v>
+      </c>
+      <c r="B486" s="2">
+        <v>-4.95</v>
+      </c>
+      <c r="C486" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="5">
+        <v>45337</v>
+      </c>
+      <c r="B487" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C487" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="5">
+        <v>45337</v>
+      </c>
+      <c r="B488" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C488" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="5">
+        <v>45337</v>
+      </c>
+      <c r="B489" s="2">
+        <v>-17</v>
+      </c>
+      <c r="C489" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="5">
+        <v>45337</v>
+      </c>
+      <c r="B490" s="2">
+        <v>-1.99</v>
+      </c>
+      <c r="C490" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="5">
+        <v>45336</v>
+      </c>
+      <c r="B491" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C491" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="5">
+        <v>45336</v>
+      </c>
+      <c r="B492" s="2">
+        <v>-7.02</v>
+      </c>
+      <c r="C492" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="5">
+        <v>45336</v>
+      </c>
+      <c r="B493" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C493" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="5">
+        <v>45336</v>
+      </c>
+      <c r="B494" s="2">
+        <v>-33.46</v>
+      </c>
+      <c r="C494" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="5">
+        <v>45334</v>
+      </c>
+      <c r="B495" s="2">
+        <v>-38.31</v>
+      </c>
+      <c r="C495" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="5">
+        <v>45334</v>
+      </c>
+      <c r="B496" s="2">
+        <v>-14.39</v>
+      </c>
+      <c r="C496" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="5">
+        <v>45334</v>
+      </c>
+      <c r="B497" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C497" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="5">
+        <v>45334</v>
+      </c>
+      <c r="B498" s="2">
+        <v>-11.95</v>
+      </c>
+      <c r="C498" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="5">
+        <v>45333</v>
+      </c>
+      <c r="B499" s="2">
+        <v>-11</v>
+      </c>
+      <c r="C499" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="5">
+        <v>45333</v>
+      </c>
+      <c r="B500" s="2">
+        <v>-4.93</v>
+      </c>
+      <c r="C500" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="5">
+        <v>45333</v>
+      </c>
+      <c r="B501" s="2">
+        <v>-26.49</v>
+      </c>
+      <c r="C501" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="5">
+        <v>45333</v>
+      </c>
+      <c r="B502" s="2">
+        <v>-2.54</v>
+      </c>
+      <c r="C502" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="5">
+        <v>45332</v>
+      </c>
+      <c r="B503" s="2">
+        <v>-22.98</v>
+      </c>
+      <c r="C503" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="5">
+        <v>45332</v>
+      </c>
+      <c r="B504" s="2">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="C504" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="5">
+        <v>45332</v>
+      </c>
+      <c r="B505" s="2">
+        <v>-8</v>
+      </c>
+      <c r="C505" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="5">
+        <v>45332</v>
+      </c>
+      <c r="B506" s="2">
+        <v>-3</v>
+      </c>
+      <c r="C506" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="5">
+        <v>45332</v>
+      </c>
+      <c r="B507" s="2">
+        <v>-17.690000000000001</v>
+      </c>
+      <c r="C507" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="5">
+        <v>45331</v>
+      </c>
+      <c r="B508" s="2">
+        <v>-23.71</v>
+      </c>
+      <c r="C508" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="5">
+        <v>45331</v>
+      </c>
+      <c r="B509" s="2">
+        <v>-8.99</v>
+      </c>
+      <c r="C509" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="5">
+        <v>45330</v>
+      </c>
+      <c r="B510" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C510" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="5">
+        <v>45330</v>
+      </c>
+      <c r="B511" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C511" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="5">
+        <v>45330</v>
+      </c>
+      <c r="B512" s="2">
+        <v>-18.43</v>
+      </c>
+      <c r="C512" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="5">
+        <v>45330</v>
+      </c>
+      <c r="B513" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C513" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="5">
+        <v>45330</v>
+      </c>
+      <c r="B514" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C514" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="5">
+        <v>45330</v>
+      </c>
+      <c r="B515" s="2">
+        <v>-6.38</v>
+      </c>
+      <c r="C515" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="5">
+        <v>45329</v>
+      </c>
+      <c r="B516" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C516" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="5">
+        <v>45329</v>
+      </c>
+      <c r="B517" s="2">
+        <v>-4.29</v>
+      </c>
+      <c r="C517" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="5">
+        <v>45329</v>
+      </c>
+      <c r="B518" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C518" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="5">
+        <v>45328</v>
+      </c>
+      <c r="B519" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C519" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="5">
+        <v>45328</v>
+      </c>
+      <c r="B520" s="2">
+        <v>-7.02</v>
+      </c>
+      <c r="C520" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="5">
+        <v>45328</v>
+      </c>
+      <c r="B521" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C521" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="5">
+        <v>45328</v>
+      </c>
+      <c r="B522" s="2">
+        <v>-10.8</v>
+      </c>
+      <c r="C522" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="5">
+        <v>45328</v>
+      </c>
+      <c r="B523" s="2">
+        <v>-9.65</v>
+      </c>
+      <c r="C523" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="5">
+        <v>45326</v>
+      </c>
+      <c r="B524" s="2">
+        <v>-22.03</v>
+      </c>
+      <c r="C524" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="5">
+        <v>45326</v>
+      </c>
+      <c r="B525" s="2">
+        <v>-2</v>
+      </c>
+      <c r="C525" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="5">
+        <v>45325</v>
+      </c>
+      <c r="B526" s="2">
+        <v>-11.84</v>
+      </c>
+      <c r="C526" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="5">
+        <v>45325</v>
+      </c>
+      <c r="B527" s="2">
+        <v>-4.2</v>
+      </c>
+      <c r="C527" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="5">
+        <v>45324</v>
+      </c>
+      <c r="B528" s="2">
+        <v>-24.92</v>
+      </c>
+      <c r="C528" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="5">
+        <v>45323</v>
+      </c>
+      <c r="B529" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C529" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="5">
+        <v>45323</v>
+      </c>
+      <c r="B530" s="2">
+        <v>-7.02</v>
+      </c>
+      <c r="C530" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="5">
+        <v>45323</v>
+      </c>
+      <c r="B531" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C531" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="5">
+        <v>45323</v>
+      </c>
+      <c r="B532" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C532" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="5">
+        <v>45323</v>
+      </c>
+      <c r="B533" s="2">
+        <v>-4.59</v>
+      </c>
+      <c r="C533" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="5">
+        <v>45322</v>
+      </c>
+      <c r="B534" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C534" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="5">
+        <v>45322</v>
+      </c>
+      <c r="B535" s="2">
+        <v>-4.49</v>
+      </c>
+      <c r="C535" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="5">
+        <v>45322</v>
+      </c>
+      <c r="B536" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C536" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" s="5">
+        <v>45322</v>
+      </c>
+      <c r="B537" s="2">
+        <v>-32.99</v>
+      </c>
+      <c r="C537" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="5">
+        <v>45321</v>
+      </c>
+      <c r="B538" s="2">
+        <v>-35</v>
+      </c>
+      <c r="C538" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="5">
+        <v>45321</v>
+      </c>
+      <c r="B539" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C539" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="5">
+        <v>45321</v>
+      </c>
+      <c r="B540" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C540" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="5">
+        <v>45321</v>
+      </c>
+      <c r="B541" s="2">
+        <v>-26</v>
+      </c>
+      <c r="C541" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" s="5">
+        <v>45321</v>
+      </c>
+      <c r="B542" s="2">
+        <v>-15.2</v>
+      </c>
+      <c r="C542" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" s="5">
+        <v>45320</v>
+      </c>
+      <c r="B543" s="2">
+        <v>-45.87</v>
+      </c>
+      <c r="C543" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="5">
+        <v>45320</v>
+      </c>
+      <c r="B544" s="2">
+        <v>-11.94</v>
+      </c>
+      <c r="C544" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" s="5">
+        <v>45320</v>
+      </c>
+      <c r="B545" s="2">
+        <v>-9.8699999999999992</v>
+      </c>
+      <c r="C545" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" s="5">
+        <v>45319</v>
+      </c>
+      <c r="B546" s="2">
+        <v>-110.5</v>
+      </c>
+      <c r="C546" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" s="5">
+        <v>45318</v>
+      </c>
+      <c r="B547" s="2">
+        <v>-27.36</v>
+      </c>
+      <c r="C547" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" s="5">
+        <v>45318</v>
+      </c>
+      <c r="B548" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C548" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" s="5">
+        <v>45317</v>
+      </c>
+      <c r="B549" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C549" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" s="5">
+        <v>45317</v>
+      </c>
+      <c r="B550" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C550" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" s="5">
+        <v>45317</v>
+      </c>
+      <c r="B551" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C551" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" s="5">
+        <v>45317</v>
+      </c>
+      <c r="B552" s="2">
+        <v>-5</v>
+      </c>
+      <c r="C552" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B553" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C553" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B554" s="2">
+        <v>-5.54</v>
+      </c>
+      <c r="C554" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B555" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C555" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B556" s="2">
+        <v>-4.58</v>
+      </c>
+      <c r="C556" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B557" s="2">
+        <v>-6.47</v>
+      </c>
+      <c r="C557" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B558" s="2">
+        <v>-3.98</v>
+      </c>
+      <c r="C558" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" s="5">
+        <v>45315</v>
+      </c>
+      <c r="B559" s="2">
+        <v>-108.61</v>
+      </c>
+      <c r="C559" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" s="5">
+        <v>45315</v>
+      </c>
+      <c r="B560" s="2">
+        <v>-55</v>
+      </c>
+      <c r="C560" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" s="5">
+        <v>45315</v>
+      </c>
+      <c r="B561" s="2">
+        <v>-196.98</v>
+      </c>
+      <c r="C561" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" s="5">
+        <v>45315</v>
+      </c>
+      <c r="B562" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C562" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" s="5">
+        <v>45314</v>
+      </c>
+      <c r="B563" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C563" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="5">
+        <v>45314</v>
+      </c>
+      <c r="B564" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C564" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="5">
+        <v>45313</v>
+      </c>
+      <c r="B565" s="2">
+        <v>-9.64</v>
+      </c>
+      <c r="C565" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="5">
+        <v>45313</v>
+      </c>
+      <c r="B566" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C566" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="5">
+        <v>45312</v>
+      </c>
+      <c r="B567" s="2">
+        <v>-8.06</v>
+      </c>
+      <c r="C567" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="5">
+        <v>45312</v>
+      </c>
+      <c r="B568" s="2">
+        <v>-5.99</v>
+      </c>
+      <c r="C568" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="5">
+        <v>45312</v>
+      </c>
+      <c r="B569" s="2">
+        <v>-10.6</v>
+      </c>
+      <c r="C569" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="5">
+        <v>45311</v>
+      </c>
+      <c r="B570" s="2">
+        <v>-11.83</v>
+      </c>
+      <c r="C570" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" s="5">
+        <v>45311</v>
+      </c>
+      <c r="B571" s="2">
+        <v>-9.01</v>
+      </c>
+      <c r="C571" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" s="5">
+        <v>45310</v>
+      </c>
+      <c r="B572" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C572" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" s="5">
+        <v>45310</v>
+      </c>
+      <c r="B573" s="2">
+        <v>-10.48</v>
+      </c>
+      <c r="C573" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" s="5">
+        <v>45310</v>
+      </c>
+      <c r="B574" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C574" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" s="5">
+        <v>45309</v>
+      </c>
+      <c r="B575" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C575" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" s="5">
+        <v>45309</v>
+      </c>
+      <c r="B576" s="2">
+        <v>-10</v>
+      </c>
+      <c r="C576" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" s="5">
+        <v>45309</v>
+      </c>
+      <c r="B577" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C577" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" s="5">
+        <v>45309</v>
+      </c>
+      <c r="B578" s="2">
+        <v>-32.71</v>
+      </c>
+      <c r="C578" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" s="5">
+        <v>45309</v>
+      </c>
+      <c r="B579" s="2">
+        <v>-2.89</v>
+      </c>
+      <c r="C579" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" s="5">
+        <v>45308</v>
+      </c>
+      <c r="B580" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C580" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" s="5">
+        <v>45308</v>
+      </c>
+      <c r="B581" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C581" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" s="5">
+        <v>45308</v>
+      </c>
+      <c r="B582" s="2">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="C582" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" s="5">
+        <v>45308</v>
+      </c>
+      <c r="B583" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C583" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" s="5">
+        <v>45307</v>
+      </c>
+      <c r="B584" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C584" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" s="5">
+        <v>45307</v>
+      </c>
+      <c r="B585" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C585" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" s="5">
+        <v>45307</v>
+      </c>
+      <c r="B586" s="2">
+        <v>-175</v>
+      </c>
+      <c r="C586" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" s="5">
+        <v>45307</v>
+      </c>
+      <c r="B587" s="2">
+        <v>-35.380000000000003</v>
+      </c>
+      <c r="C587" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" s="5">
+        <v>45304</v>
+      </c>
+      <c r="B588" s="2">
+        <v>-2.27</v>
+      </c>
+      <c r="C588" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" s="5">
+        <v>45303</v>
+      </c>
+      <c r="B589" s="2">
+        <v>-5.31</v>
+      </c>
+      <c r="C589" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" s="5">
+        <v>45303</v>
+      </c>
+      <c r="B590" s="2">
+        <v>-19.98</v>
+      </c>
+      <c r="C590" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" s="5">
+        <v>45303</v>
+      </c>
+      <c r="B591" s="2">
+        <v>-7.78</v>
+      </c>
+      <c r="C591" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" s="5">
+        <v>45295</v>
+      </c>
+      <c r="B592" s="2">
+        <v>-2</v>
+      </c>
+      <c r="C592" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" s="5">
+        <v>45289</v>
+      </c>
+      <c r="B593" s="2">
+        <v>-33.450000000000003</v>
+      </c>
+      <c r="C593" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" s="5">
+        <v>45289</v>
+      </c>
+      <c r="B594" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C594" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" s="5">
+        <v>45289</v>
+      </c>
+      <c r="B595" s="2">
+        <v>-8.99</v>
+      </c>
+      <c r="C595" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" s="5">
+        <v>45289</v>
+      </c>
+      <c r="B596" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C596" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" s="5">
+        <v>45288</v>
+      </c>
+      <c r="B597" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C597" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" s="5">
+        <v>45288</v>
+      </c>
+      <c r="B598" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C598" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" s="5">
+        <v>45288</v>
+      </c>
+      <c r="B599" s="2">
+        <v>-23.95</v>
+      </c>
+      <c r="C599" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" s="5">
+        <v>45287</v>
+      </c>
+      <c r="B600" s="2">
+        <v>-1.08</v>
+      </c>
+      <c r="C600" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" s="5">
+        <v>45287</v>
+      </c>
+      <c r="B601" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C601" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" s="5">
+        <v>45287</v>
+      </c>
+      <c r="B602" s="2">
+        <v>-5.98</v>
+      </c>
+      <c r="C602" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" s="5">
+        <v>45287</v>
+      </c>
+      <c r="B603" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C603" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" s="5">
+        <v>45287</v>
+      </c>
+      <c r="B604" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C604" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605" s="5">
+        <v>45286</v>
+      </c>
+      <c r="B605" s="2">
+        <v>-42</v>
+      </c>
+      <c r="C605" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606" s="5">
+        <v>45286</v>
+      </c>
+      <c r="B606" s="2">
+        <v>-10.82</v>
+      </c>
+      <c r="C606" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607" s="5">
+        <v>45286</v>
+      </c>
+      <c r="B607" s="2">
+        <v>-5.42</v>
+      </c>
+      <c r="C607" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608" s="5">
+        <v>45286</v>
+      </c>
+      <c r="B608" s="2">
+        <v>-5</v>
+      </c>
+      <c r="C608" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609" s="5">
+        <v>45285</v>
+      </c>
+      <c r="B609" s="2">
+        <v>-20.99</v>
+      </c>
+      <c r="C609" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610" s="5">
+        <v>45282</v>
+      </c>
+      <c r="B610" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C610" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611" s="5">
+        <v>45281</v>
+      </c>
+      <c r="B611" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C611" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612" s="5">
+        <v>45281</v>
+      </c>
+      <c r="B612" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C612" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613" s="5">
+        <v>45280</v>
+      </c>
+      <c r="B613" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C613" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" s="5">
+        <v>45280</v>
+      </c>
+      <c r="B614" s="2">
+        <v>-4.59</v>
+      </c>
+      <c r="C614" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615" s="5">
+        <v>45280</v>
+      </c>
+      <c r="B615" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C615" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616" s="5">
+        <v>45279</v>
+      </c>
+      <c r="B616" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C616" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617" s="5">
+        <v>45279</v>
+      </c>
+      <c r="B617" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="C617" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618" s="5">
+        <v>45279</v>
+      </c>
+      <c r="B618" s="2">
+        <v>-2.89</v>
+      </c>
+      <c r="C618" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619" s="5">
+        <v>45279</v>
+      </c>
+      <c r="B619" s="2">
+        <v>-24.43</v>
+      </c>
+      <c r="C619" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620" s="5">
+        <v>45278</v>
+      </c>
+      <c r="B620" s="2">
+        <v>-175</v>
+      </c>
+      <c r="C620" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621" s="5">
+        <v>45278</v>
+      </c>
+      <c r="B621" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C621" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" s="5">
+        <v>45278</v>
+      </c>
+      <c r="B622" s="2">
+        <v>-110.5</v>
+      </c>
+      <c r="C622" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623" s="5">
+        <v>45277</v>
+      </c>
+      <c r="B623" s="2">
+        <v>-85.15</v>
+      </c>
+      <c r="C623" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" s="5">
+        <v>45274</v>
+      </c>
+      <c r="B624" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C624" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625" s="5">
+        <v>45274</v>
+      </c>
+      <c r="B625" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C625" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" s="5">
+        <v>45274</v>
+      </c>
+      <c r="B626" s="2">
+        <v>-3.79</v>
+      </c>
+      <c r="C626" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627" s="5">
+        <v>45274</v>
+      </c>
+      <c r="B627" s="2">
+        <v>-17.41</v>
+      </c>
+      <c r="C627" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628" s="5">
+        <v>45274</v>
+      </c>
+      <c r="B628" s="2">
+        <v>-1.99</v>
+      </c>
+      <c r="C628" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629" s="5">
+        <v>45273</v>
+      </c>
+      <c r="B629" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C629" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630" s="5">
+        <v>45273</v>
+      </c>
+      <c r="B630" s="2">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="C630" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631" s="5">
+        <v>45273</v>
+      </c>
+      <c r="B631" s="2">
+        <v>-6.8</v>
+      </c>
+      <c r="C631" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632" s="5">
+        <v>45273</v>
+      </c>
+      <c r="B632" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C632" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633" s="5">
+        <v>45273</v>
+      </c>
+      <c r="B633" s="2">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="C633" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634" s="5">
+        <v>45272</v>
+      </c>
+      <c r="B634" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C634" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" s="5">
+        <v>45272</v>
+      </c>
+      <c r="B635" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C635" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" s="5">
+        <v>45271</v>
+      </c>
+      <c r="B636" s="2">
+        <v>-16.670000000000002</v>
+      </c>
+      <c r="C636" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637" s="5">
+        <v>45270</v>
+      </c>
+      <c r="B637" s="2">
+        <v>-69.63</v>
+      </c>
+      <c r="C637" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638" s="5">
+        <v>45270</v>
+      </c>
+      <c r="B638" s="2">
+        <v>-26.35</v>
+      </c>
+      <c r="C638" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639" s="5">
+        <v>45269</v>
+      </c>
+      <c r="B639" s="2">
+        <v>-10.75</v>
+      </c>
+      <c r="C639" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640" s="5">
+        <v>45269</v>
+      </c>
+      <c r="B640" s="2">
+        <v>-39.57</v>
+      </c>
+      <c r="C640" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641" s="5">
+        <v>45269</v>
+      </c>
+      <c r="B641" s="2">
+        <v>-44.04</v>
+      </c>
+      <c r="C641" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642" s="5">
+        <v>45269</v>
+      </c>
+      <c r="B642" s="2">
+        <v>-6.52</v>
+      </c>
+      <c r="C642" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643" s="5">
+        <v>45269</v>
+      </c>
+      <c r="B643" s="2">
+        <v>-2.89</v>
+      </c>
+      <c r="C643" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644" s="5">
+        <v>45268</v>
+      </c>
+      <c r="B644" s="2">
+        <v>-26.77</v>
+      </c>
+      <c r="C644" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645" s="5">
+        <v>45268</v>
+      </c>
+      <c r="B645" s="2">
+        <v>-13.56</v>
+      </c>
+      <c r="C645" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" s="5">
+        <v>45267</v>
+      </c>
+      <c r="B646" s="2">
+        <v>-16.77</v>
+      </c>
+      <c r="C646" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647" s="5">
+        <v>45267</v>
+      </c>
+      <c r="B647" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C647" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" s="5">
+        <v>45267</v>
+      </c>
+      <c r="B648" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C648" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649" s="5">
+        <v>45267</v>
+      </c>
+      <c r="B649" s="2">
+        <v>-1.99</v>
+      </c>
+      <c r="C649" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650" s="5">
+        <v>45267</v>
+      </c>
+      <c r="B650" s="2">
+        <v>-3.68</v>
+      </c>
+      <c r="C650" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" s="5">
+        <v>45267</v>
+      </c>
+      <c r="B651" s="2">
+        <v>-5</v>
+      </c>
+      <c r="C651" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="A652" s="5">
+        <v>45267</v>
+      </c>
+      <c r="B652" s="2">
+        <v>-10.75</v>
+      </c>
+      <c r="C652" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653" s="5">
+        <v>45266</v>
+      </c>
+      <c r="B653" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C653" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="A654" s="5">
+        <v>45266</v>
+      </c>
+      <c r="B654" s="2">
+        <v>-1.99</v>
+      </c>
+      <c r="C654" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="A655" s="5">
+        <v>45264</v>
+      </c>
+      <c r="B655" s="2">
+        <v>-2</v>
+      </c>
+      <c r="C655" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="A656" s="5">
+        <v>45261</v>
+      </c>
+      <c r="B656" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C656" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="A657" s="5">
+        <v>45261</v>
+      </c>
+      <c r="B657" s="2">
+        <v>-30</v>
+      </c>
+      <c r="C657" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="A658" s="5">
+        <v>45261</v>
+      </c>
+      <c r="B658" s="2">
+        <v>-4.49</v>
+      </c>
+      <c r="C658" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="A659" s="5">
+        <v>45261</v>
+      </c>
+      <c r="B659" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C659" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="A660" s="5">
+        <v>45261</v>
+      </c>
+      <c r="B660" s="2">
+        <v>-20.74</v>
+      </c>
+      <c r="C660" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="A661" s="5">
+        <v>45261</v>
+      </c>
+      <c r="B661" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C661" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="A662" s="5">
+        <v>45260</v>
+      </c>
+      <c r="B662" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="C662" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="A663" s="5">
+        <v>45260</v>
+      </c>
+      <c r="B663" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C663" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664" s="5">
+        <v>45260</v>
+      </c>
+      <c r="B664" s="2">
+        <v>-5.36</v>
+      </c>
+      <c r="C664" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="A665" s="5">
+        <v>45260</v>
+      </c>
+      <c r="B665" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C665" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="A666" s="5">
+        <v>45260</v>
+      </c>
+      <c r="B666" s="2">
+        <v>-1.99</v>
+      </c>
+      <c r="C666" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="A667" s="5">
+        <v>45260</v>
+      </c>
+      <c r="B667" s="2">
+        <v>-3.52</v>
+      </c>
+      <c r="C667" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3">
+      <c r="A668" s="5">
+        <v>45259</v>
+      </c>
+      <c r="B668" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C668" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3">
+      <c r="A669" s="5">
+        <v>45259</v>
+      </c>
+      <c r="B669" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C669" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3">
+      <c r="A670" s="5">
+        <v>45259</v>
+      </c>
+      <c r="B670" s="2">
+        <v>-4.59</v>
+      </c>
+      <c r="C670" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3">
+      <c r="A671" s="5">
+        <v>45258</v>
+      </c>
+      <c r="B671" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C671" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3">
+      <c r="A672" s="5">
+        <v>45258</v>
+      </c>
+      <c r="B672" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C672" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3">
+      <c r="A673" s="5">
+        <v>45258</v>
+      </c>
+      <c r="B673" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C673" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3">
+      <c r="A674" s="5">
+        <v>45258</v>
+      </c>
+      <c r="B674" s="2">
+        <v>-1.99</v>
+      </c>
+      <c r="C674" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3">
+      <c r="A675" s="5">
+        <v>45257</v>
+      </c>
+      <c r="B675" s="2">
+        <v>-16.75</v>
+      </c>
+      <c r="C675" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3">
+      <c r="A676" s="5">
+        <v>45257</v>
+      </c>
+      <c r="B676" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C676" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3">
+      <c r="A677" s="5">
+        <v>45256</v>
+      </c>
+      <c r="B677" s="2">
+        <v>-12.72</v>
+      </c>
+      <c r="C677" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3">
+      <c r="A678" s="5">
+        <v>45256</v>
+      </c>
+      <c r="B678" s="2">
+        <v>-16</v>
+      </c>
+      <c r="C678" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3">
+      <c r="A679" s="5">
+        <v>45256</v>
+      </c>
+      <c r="B679" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C679" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3">
+      <c r="A680" s="5">
+        <v>45256</v>
+      </c>
+      <c r="B680" s="2">
+        <v>-26.35</v>
+      </c>
+      <c r="C680" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3">
+      <c r="A681" s="5">
+        <v>45255</v>
+      </c>
+      <c r="B681" s="2">
+        <v>-6.09</v>
+      </c>
+      <c r="C681" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3">
+      <c r="A682" s="5">
+        <v>45255</v>
+      </c>
+      <c r="B682" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C682" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3">
+      <c r="A683" s="5">
+        <v>45255</v>
+      </c>
+      <c r="B683" s="2">
+        <v>-13.89</v>
+      </c>
+      <c r="C683" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3">
+      <c r="A684" s="5">
+        <v>45255</v>
+      </c>
+      <c r="B684" s="2">
+        <v>-5</v>
+      </c>
+      <c r="C684" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3">
+      <c r="A685" s="5">
+        <v>45254</v>
+      </c>
+      <c r="B685" s="2">
+        <v>-15.74</v>
+      </c>
+      <c r="C685" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3">
+      <c r="A686" s="5">
+        <v>45254</v>
+      </c>
+      <c r="B686" s="2">
+        <v>-26.65</v>
+      </c>
+      <c r="C686" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3">
+      <c r="A687" s="5">
+        <v>45254</v>
+      </c>
+      <c r="B687" s="2">
+        <v>-17.350000000000001</v>
+      </c>
+      <c r="C687" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3">
+      <c r="A688" s="5">
+        <v>45254</v>
+      </c>
+      <c r="B688" s="2">
+        <v>-6.62</v>
+      </c>
+      <c r="C688" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3">
+      <c r="A689" s="5">
+        <v>45252</v>
+      </c>
+      <c r="B689" s="2">
+        <v>-2.1</v>
+      </c>
+      <c r="C689" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3">
+      <c r="A690" s="5">
+        <v>45252</v>
+      </c>
+      <c r="B690" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C690" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3">
+      <c r="A691" s="5">
+        <v>45252</v>
+      </c>
+      <c r="B691" s="2">
+        <v>-6.08</v>
+      </c>
+      <c r="C691" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3">
+      <c r="A692" s="5">
+        <v>45252</v>
+      </c>
+      <c r="B692" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C692" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3">
+      <c r="A693" s="5">
+        <v>45251</v>
+      </c>
+      <c r="B693" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C693" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3">
+      <c r="A694" s="5">
+        <v>45251</v>
+      </c>
+      <c r="B694" s="2">
+        <v>-12.36</v>
+      </c>
+      <c r="C694" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3">
+      <c r="A695" s="5">
+        <v>45251</v>
+      </c>
+      <c r="B695" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C695" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3">
+      <c r="A696" s="5">
+        <v>45251</v>
+      </c>
+      <c r="B696" s="2">
+        <v>-5.22</v>
+      </c>
+      <c r="C696" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3">
+      <c r="A697" s="5">
+        <v>45250</v>
+      </c>
+      <c r="B697" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C697" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3">
+      <c r="A698" s="5">
+        <v>45250</v>
+      </c>
+      <c r="B698" s="2">
+        <v>-5.65</v>
+      </c>
+      <c r="C698" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3">
+      <c r="A699" s="5">
+        <v>45250</v>
+      </c>
+      <c r="B699" s="2">
+        <v>-8.7899999999999991</v>
+      </c>
+      <c r="C699" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3">
+      <c r="A700" s="5">
+        <v>45250</v>
+      </c>
+      <c r="B700" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C700" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3">
+      <c r="A701" s="5">
+        <v>45250</v>
+      </c>
+      <c r="B701" s="2">
+        <v>-19.920000000000002</v>
+      </c>
+      <c r="C701" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3">
+      <c r="A702" s="5">
+        <v>45248</v>
+      </c>
+      <c r="B702" s="2">
+        <v>-7</v>
+      </c>
+      <c r="C702" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3">
+      <c r="A703" s="5">
+        <v>45246</v>
+      </c>
+      <c r="B703" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C703" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3">
+      <c r="A704" s="5">
+        <v>45246</v>
+      </c>
+      <c r="B704" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C704" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3">
+      <c r="A705" s="5">
+        <v>45246</v>
+      </c>
+      <c r="B705" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C705" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3">
+      <c r="A706" s="5">
+        <v>45246</v>
+      </c>
+      <c r="B706" s="2">
+        <v>-1.99</v>
+      </c>
+      <c r="C706" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3">
+      <c r="A707" s="5">
+        <v>45246</v>
+      </c>
+      <c r="B707" s="2">
+        <v>-21.29</v>
+      </c>
+      <c r="C707" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3">
+      <c r="A708" s="5">
+        <v>45245</v>
+      </c>
+      <c r="B708" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C708" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3">
+      <c r="A709" s="5">
+        <v>45245</v>
+      </c>
+      <c r="B709" s="2">
+        <v>-4.59</v>
+      </c>
+      <c r="C709" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3">
+      <c r="A710" s="5">
+        <v>45244</v>
+      </c>
+      <c r="B710" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C710" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3">
+      <c r="A711" s="5">
+        <v>45244</v>
+      </c>
+      <c r="B711" s="2">
+        <v>-3.85</v>
+      </c>
+      <c r="C711" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3">
+      <c r="A712" s="5">
+        <v>45244</v>
+      </c>
+      <c r="B712" s="2">
+        <v>-13.28</v>
+      </c>
+      <c r="C712" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3">
+      <c r="A713" s="5">
+        <v>45244</v>
+      </c>
+      <c r="B713" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C713" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3">
+      <c r="A714" s="5">
+        <v>45244</v>
+      </c>
+      <c r="B714" s="2">
+        <v>-1.99</v>
+      </c>
+      <c r="C714" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3">
+      <c r="A715" s="5">
+        <v>45241</v>
+      </c>
+      <c r="B715" s="2">
+        <v>-16.53</v>
+      </c>
+      <c r="C715" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3">
+      <c r="A716" s="5">
+        <v>45240</v>
+      </c>
+      <c r="B716" s="2">
+        <v>-12.81</v>
+      </c>
+      <c r="C716" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3">
+      <c r="A717" s="5">
+        <v>45240</v>
+      </c>
+      <c r="B717" s="2">
+        <v>-13.96</v>
+      </c>
+      <c r="C717" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3">
+      <c r="A718" s="5">
+        <v>45240</v>
+      </c>
+      <c r="B718" s="2">
+        <v>-11.92</v>
+      </c>
+      <c r="C718" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3">
+      <c r="A719" s="5">
+        <v>45240</v>
+      </c>
+      <c r="B719" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C719" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3">
+      <c r="A720" s="5">
+        <v>45240</v>
+      </c>
+      <c r="B720" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C720" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3">
+      <c r="A721" s="5">
+        <v>45240</v>
+      </c>
+      <c r="B721" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C721" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3">
+      <c r="A722" s="5">
+        <v>45240</v>
+      </c>
+      <c r="B722" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C722" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3">
+      <c r="A723" s="5">
+        <v>45239</v>
+      </c>
+      <c r="B723" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C723" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3">
+      <c r="A724" s="5">
+        <v>45239</v>
+      </c>
+      <c r="B724" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C724" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3">
+      <c r="A725" s="5">
+        <v>45239</v>
+      </c>
+      <c r="B725" s="2">
+        <v>-11.89</v>
+      </c>
+      <c r="C725" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3">
+      <c r="A726" s="5">
+        <v>45238</v>
+      </c>
+      <c r="B726" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C726" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3">
+      <c r="A727" s="5">
+        <v>45238</v>
+      </c>
+      <c r="B727" s="2">
+        <v>-9.82</v>
+      </c>
+      <c r="C727" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3">
+      <c r="A728" s="5">
+        <v>45238</v>
+      </c>
+      <c r="B728" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C728" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3">
+      <c r="A729" s="5">
+        <v>45238</v>
+      </c>
+      <c r="B729" s="2">
+        <v>-1.99</v>
+      </c>
+      <c r="C729" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3">
+      <c r="A730" s="5">
+        <v>45238</v>
+      </c>
+      <c r="B730" s="2">
+        <v>-3.91</v>
+      </c>
+      <c r="C730" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3">
+      <c r="A731" s="5">
+        <v>45237</v>
+      </c>
+      <c r="B731" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C731" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3">
+      <c r="A732" s="5">
+        <v>45236</v>
+      </c>
+      <c r="B732" s="2">
+        <v>-10.88</v>
+      </c>
+      <c r="C732" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3">
+      <c r="A733" s="5">
+        <v>45236</v>
+      </c>
+      <c r="B733" s="2">
+        <v>-51.22</v>
+      </c>
+      <c r="C733" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3">
+      <c r="A734" s="5">
+        <v>45235</v>
+      </c>
+      <c r="B734" s="2">
+        <v>-3.68</v>
+      </c>
+      <c r="C734" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3">
+      <c r="A735" s="5">
+        <v>45235</v>
+      </c>
+      <c r="B735" s="2">
+        <v>-10.09</v>
+      </c>
+      <c r="C735" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3">
+      <c r="A736" s="5">
+        <v>45234</v>
+      </c>
+      <c r="B736" s="2">
+        <v>-2</v>
+      </c>
+      <c r="C736" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3">
+      <c r="A737" s="5">
+        <v>45232</v>
+      </c>
+      <c r="B737" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C737" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3">
+      <c r="A738" s="5">
+        <v>45232</v>
+      </c>
+      <c r="B738" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C738" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3">
+      <c r="A739" s="5">
+        <v>45232</v>
+      </c>
+      <c r="B739" s="2">
+        <v>-1.99</v>
+      </c>
+      <c r="C739" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3">
+      <c r="A740" s="5">
+        <v>45231</v>
+      </c>
+      <c r="B740" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C740" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3">
+      <c r="A741" s="5">
+        <v>45231</v>
+      </c>
+      <c r="B741" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C741" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3">
+      <c r="A742" s="5">
+        <v>45231</v>
+      </c>
+      <c r="B742" s="2">
+        <v>-1.99</v>
+      </c>
+      <c r="C742" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3">
+      <c r="A743" s="5">
+        <v>45230</v>
+      </c>
+      <c r="B743" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C743" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3">
+      <c r="A744" s="5">
+        <v>45230</v>
+      </c>
+      <c r="B744" s="2">
+        <v>-11.28</v>
+      </c>
+      <c r="C744" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3">
+      <c r="A745" s="5">
+        <v>45230</v>
+      </c>
+      <c r="B745" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C745" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3">
+      <c r="A746" s="5">
+        <v>45230</v>
+      </c>
+      <c r="B746" s="2">
+        <v>-10.039999999999999</v>
+      </c>
+      <c r="C746" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3">
+      <c r="A747" s="5">
+        <v>45229</v>
+      </c>
+      <c r="B747" s="2">
+        <v>-4.96</v>
+      </c>
+      <c r="C747" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3">
+      <c r="A748" s="5">
+        <v>45229</v>
+      </c>
+      <c r="B748" s="2">
+        <v>-14.95</v>
+      </c>
+      <c r="C748" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3">
+      <c r="A749" s="5">
+        <v>45227</v>
+      </c>
+      <c r="B749" s="2">
+        <v>-15.8</v>
+      </c>
+      <c r="C749" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3">
+      <c r="A750" s="5">
+        <v>45227</v>
+      </c>
+      <c r="B750" s="2">
+        <v>-57.19</v>
+      </c>
+      <c r="C750" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3">
+      <c r="A751" s="5">
+        <v>45226</v>
+      </c>
+      <c r="B751" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C751" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3">
+      <c r="A752" s="5">
+        <v>45225</v>
+      </c>
+      <c r="B752" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C752" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3">
+      <c r="A753" s="5">
+        <v>45225</v>
+      </c>
+      <c r="B753" s="2">
+        <v>-5.65</v>
+      </c>
+      <c r="C753" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3">
+      <c r="A754" s="5">
+        <v>45225</v>
+      </c>
+      <c r="B754" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C754" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3">
+      <c r="A755" s="5">
+        <v>45225</v>
+      </c>
+      <c r="B755" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C755" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3">
+      <c r="A756" s="5">
+        <v>45225</v>
+      </c>
+      <c r="B756" s="2">
+        <v>-5</v>
+      </c>
+      <c r="C756" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3">
+      <c r="A757" s="5">
+        <v>45225</v>
+      </c>
+      <c r="B757" s="2">
+        <v>-13.65</v>
+      </c>
+      <c r="C757" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3">
+      <c r="A758" s="5">
+        <v>45224</v>
+      </c>
+      <c r="B758" s="2">
+        <v>-10</v>
+      </c>
+      <c r="C758" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3">
+      <c r="A759" s="5">
+        <v>45224</v>
+      </c>
+      <c r="B759" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C759" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3">
+      <c r="A760" s="5">
+        <v>45224</v>
+      </c>
+      <c r="B760" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C760" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3">
+      <c r="A761" s="5">
+        <v>45224</v>
+      </c>
+      <c r="B761" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C761" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3">
+      <c r="A762" s="5">
+        <v>45224</v>
+      </c>
+      <c r="B762" s="2">
+        <v>-1.99</v>
+      </c>
+      <c r="C762" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3">
+      <c r="A763" s="5">
+        <v>45223</v>
+      </c>
+      <c r="B763" s="2">
+        <v>-5.65</v>
+      </c>
+      <c r="C763" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3">
+      <c r="A764" s="5">
+        <v>45223</v>
+      </c>
+      <c r="B764" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C764" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3">
+      <c r="A765" s="5">
+        <v>45223</v>
+      </c>
+      <c r="B765" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C765" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3">
+      <c r="A766" s="5">
+        <v>45223</v>
+      </c>
+      <c r="B766" s="2">
+        <v>-1.99</v>
+      </c>
+      <c r="C766" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3">
+      <c r="A767" s="5">
+        <v>45222</v>
+      </c>
+      <c r="B767" s="2">
+        <v>-26.61</v>
+      </c>
+      <c r="C767" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3">
+      <c r="A768" s="5">
+        <v>45221</v>
+      </c>
+      <c r="B768" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C768" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3">
+      <c r="A769" s="5">
+        <v>45221</v>
+      </c>
+      <c r="B769" s="2">
+        <v>-19.170000000000002</v>
+      </c>
+      <c r="C769" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3">
+      <c r="A770" s="5">
+        <v>45220</v>
+      </c>
+      <c r="B770" s="2">
+        <v>-86.73</v>
+      </c>
+      <c r="C770" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3">
+      <c r="A771" s="5">
+        <v>45220</v>
+      </c>
+      <c r="B771" s="2">
+        <v>-10.91</v>
+      </c>
+      <c r="C771" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3">
+      <c r="A772" s="5">
+        <v>45219</v>
+      </c>
+      <c r="B772" s="2">
+        <v>-17.27</v>
+      </c>
+      <c r="C772" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3">
+      <c r="A773" s="5">
+        <v>45218</v>
+      </c>
+      <c r="B773" s="2">
+        <v>-9.8800000000000008</v>
+      </c>
+      <c r="C773" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3">
+      <c r="A774" s="5">
+        <v>45218</v>
+      </c>
+      <c r="B774" s="2">
+        <v>-5.77</v>
+      </c>
+      <c r="C774" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3">
+      <c r="A775" s="5">
+        <v>45218</v>
+      </c>
+      <c r="B775" s="2">
+        <v>-31.88</v>
+      </c>
+      <c r="C775" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3">
+      <c r="A776" s="5">
+        <v>45218</v>
+      </c>
+      <c r="B776" s="2">
+        <v>-12.69</v>
+      </c>
+      <c r="C776" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3">
+      <c r="A777" s="5">
+        <v>45217</v>
+      </c>
+      <c r="B777" s="2">
+        <v>-99.85</v>
+      </c>
+      <c r="C777" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3">
+      <c r="A778" s="5">
+        <v>45213</v>
+      </c>
+      <c r="B778" s="2">
+        <v>-3.81</v>
+      </c>
+      <c r="C778" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3">
+      <c r="A779" s="5">
+        <v>45212</v>
+      </c>
+      <c r="B779" s="2">
+        <v>-12.62</v>
+      </c>
+      <c r="C779" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3">
+      <c r="A780" s="5">
+        <v>45212</v>
+      </c>
+      <c r="B780" s="2">
+        <v>-11.11</v>
+      </c>
+      <c r="C780" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3">
+      <c r="A781" s="5">
+        <v>45211</v>
+      </c>
+      <c r="B781" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C781" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3">
+      <c r="A782" s="5">
+        <v>45211</v>
+      </c>
+      <c r="B782" s="2">
+        <v>-5.65</v>
+      </c>
+      <c r="C782" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3">
+      <c r="A783" s="5">
+        <v>45211</v>
+      </c>
+      <c r="B783" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C783" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3">
+      <c r="A784" s="5">
+        <v>45211</v>
+      </c>
+      <c r="B784" s="2">
+        <v>-1.99</v>
+      </c>
+      <c r="C784" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3">
+      <c r="A785" s="5">
+        <v>45211</v>
+      </c>
+      <c r="B785" s="2">
+        <v>-110.5</v>
+      </c>
+      <c r="C785" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3">
+      <c r="A786" s="5">
+        <v>45210</v>
+      </c>
+      <c r="B786" s="2">
+        <v>-2.1</v>
+      </c>
+      <c r="C786" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3">
+      <c r="A787" s="5">
+        <v>45210</v>
+      </c>
+      <c r="B787" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C787" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3">
+      <c r="A788" s="5">
+        <v>45210</v>
+      </c>
+      <c r="B788" s="2">
+        <v>-5.65</v>
+      </c>
+      <c r="C788" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3">
+      <c r="A789" s="5">
+        <v>45210</v>
+      </c>
+      <c r="B789" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C789" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3">
+      <c r="A790" s="5">
+        <v>45210</v>
+      </c>
+      <c r="B790" s="2">
+        <v>-3.85</v>
+      </c>
+      <c r="C790" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3">
+      <c r="A791" s="5">
+        <v>45209</v>
+      </c>
+      <c r="B791" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C791" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3">
+      <c r="A792" s="5">
+        <v>45209</v>
+      </c>
+      <c r="B792" s="2">
+        <v>-5.65</v>
+      </c>
+      <c r="C792" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3">
+      <c r="A793" s="5">
+        <v>45209</v>
+      </c>
+      <c r="B793" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C793" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3">
+      <c r="A794" s="5">
+        <v>45209</v>
+      </c>
+      <c r="B794" s="2">
+        <v>-10.33</v>
+      </c>
+      <c r="C794" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3">
+      <c r="A795" s="5">
+        <v>45205</v>
+      </c>
+      <c r="B795" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="C795" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3">
+      <c r="A796" s="5">
+        <v>45204</v>
+      </c>
+      <c r="B796" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C796" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3">
+      <c r="A797" s="5">
+        <v>45204</v>
+      </c>
+      <c r="B797" s="2">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="C797" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3">
+      <c r="A798" s="5">
+        <v>45204</v>
+      </c>
+      <c r="B798" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C798" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3">
+      <c r="A799" s="5">
+        <v>45203</v>
+      </c>
+      <c r="B799" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C799" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3">
+      <c r="A800" s="5">
+        <v>45203</v>
+      </c>
+      <c r="B800" s="2">
+        <v>-3.2</v>
+      </c>
+      <c r="C800" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3">
+      <c r="A801" s="5">
+        <v>45203</v>
+      </c>
+      <c r="B801" s="2">
+        <v>-2</v>
+      </c>
+      <c r="C801" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3">
+      <c r="A802" s="5">
+        <v>45202</v>
+      </c>
+      <c r="B802" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C802" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3">
+      <c r="A803" s="5">
+        <v>45202</v>
+      </c>
+      <c r="B803" s="2">
+        <v>-5.65</v>
+      </c>
+      <c r="C803" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3">
+      <c r="A804" s="5">
+        <v>45202</v>
+      </c>
+      <c r="B804" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C804" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3">
+      <c r="A805" s="5">
+        <v>45202</v>
+      </c>
+      <c r="B805" s="2">
+        <v>-4.59</v>
+      </c>
+      <c r="C805" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3">
+      <c r="A806" s="5">
+        <v>45202</v>
+      </c>
+      <c r="B806" s="2">
+        <v>-23.99</v>
+      </c>
+      <c r="C806" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3">
+      <c r="A807" s="5">
+        <v>45201</v>
+      </c>
+      <c r="B807" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C807" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3">
+      <c r="A808" s="5">
+        <v>45201</v>
+      </c>
+      <c r="B808" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C808" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3">
+      <c r="A809" s="5">
+        <v>45197</v>
+      </c>
+      <c r="B809" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C809" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3">
+      <c r="A810" s="5">
+        <v>45197</v>
+      </c>
+      <c r="B810" s="2">
+        <v>-5.65</v>
+      </c>
+      <c r="C810" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3">
+      <c r="A811" s="5">
+        <v>45197</v>
+      </c>
+      <c r="B811" s="2">
+        <v>-11.99</v>
+      </c>
+      <c r="C811" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3">
+      <c r="A812" s="5">
+        <v>45197</v>
+      </c>
+      <c r="B812" s="2">
+        <v>-12.17</v>
+      </c>
+      <c r="C812" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3">
+      <c r="A813" s="5">
+        <v>45197</v>
+      </c>
+      <c r="B813" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C813" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3">
+      <c r="A814" s="5">
+        <v>45197</v>
+      </c>
+      <c r="B814" s="2">
+        <v>-19.989999999999998</v>
+      </c>
+      <c r="C814" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3">
+      <c r="A815" s="5">
+        <v>45197</v>
+      </c>
+      <c r="B815" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C815" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3">
+      <c r="A816" s="5">
+        <v>45197</v>
+      </c>
+      <c r="B816" s="2">
+        <v>-10.75</v>
+      </c>
+      <c r="C816" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3">
+      <c r="A817" s="5">
+        <v>45196</v>
+      </c>
+      <c r="B817" s="2">
+        <v>-7.99</v>
+      </c>
+      <c r="C817" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3">
+      <c r="A818" s="5">
+        <v>45196</v>
+      </c>
+      <c r="B818" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C818" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3">
+      <c r="A819" s="5">
+        <v>45195</v>
+      </c>
+      <c r="B819" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C819" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3">
+      <c r="A820" s="5">
+        <v>45195</v>
+      </c>
+      <c r="B820" s="2">
+        <v>-5.65</v>
+      </c>
+      <c r="C820" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3">
+      <c r="A821" s="5">
+        <v>45195</v>
+      </c>
+      <c r="B821" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="C821" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3">
+      <c r="A822" s="5">
+        <v>45195</v>
+      </c>
+      <c r="B822" s="2">
+        <v>-1.99</v>
+      </c>
+      <c r="C822" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3">
+      <c r="A823" s="5">
+        <v>45194</v>
+      </c>
+      <c r="B823" s="2">
+        <v>-10.89</v>
+      </c>
+      <c r="C823" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3">
+      <c r="A824" s="5">
+        <v>45194</v>
+      </c>
+      <c r="B824" s="2">
+        <v>-5.68</v>
+      </c>
+      <c r="C824" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3">
+      <c r="A825" s="5">
+        <v>45194</v>
+      </c>
+      <c r="B825" s="2">
+        <v>-5</v>
+      </c>
+      <c r="C825" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3">
+      <c r="A826" s="5">
+        <v>45192</v>
+      </c>
+      <c r="B826" s="2">
+        <v>-12.17</v>
+      </c>
+      <c r="C826" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3">
+      <c r="A827" s="5">
+        <v>45192</v>
+      </c>
+      <c r="B827" s="2">
+        <v>-14.79</v>
+      </c>
+      <c r="C827" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3">
+      <c r="A828" s="5">
+        <v>45518</v>
+      </c>
+      <c r="B828" s="2">
+        <v>18.45</v>
+      </c>
+      <c r="C828" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3">
+      <c r="A829" s="5">
+        <v>45521</v>
+      </c>
+      <c r="B829" s="2">
+        <v>17</v>
+      </c>
+      <c r="C829" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3">
+      <c r="A830" s="5">
+        <v>45530</v>
+      </c>
+      <c r="B830" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="C830" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3">
+      <c r="A831" s="5">
+        <v>45541</v>
+      </c>
+      <c r="B831" s="2">
+        <v>2</v>
+      </c>
+      <c r="C831" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3">
+      <c r="A832" s="5">
+        <v>45544</v>
+      </c>
+      <c r="B832" s="2">
+        <v>4.03</v>
+      </c>
+      <c r="C832" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3">
+      <c r="A833" s="5">
+        <v>45549</v>
+      </c>
+      <c r="B833" s="2">
+        <v>21.71</v>
+      </c>
+      <c r="C833" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3">
+      <c r="A834" s="5">
+        <v>45552</v>
+      </c>
+      <c r="B834" s="2">
+        <v>3.52</v>
+      </c>
+      <c r="C834" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3">
+      <c r="A835" s="5">
+        <v>45553</v>
+      </c>
+      <c r="B835" s="2">
+        <v>5.98</v>
+      </c>
+      <c r="C835" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3">
+      <c r="A836" s="5">
+        <v>45557</v>
+      </c>
+      <c r="B836" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="C836" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3">
+      <c r="A837" s="5">
+        <v>45561</v>
+      </c>
+      <c r="B837" s="2">
+        <v>2.69</v>
+      </c>
+      <c r="C837" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3">
+      <c r="A838" s="5">
+        <v>45562</v>
+      </c>
+      <c r="B838" s="2">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="C838" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3">
+      <c r="A839" s="5">
+        <v>45564</v>
+      </c>
+      <c r="B839" s="2">
+        <v>8.68</v>
+      </c>
+      <c r="C839" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCBDCE41-29AB-499C-8909-FE135B347EC7}">
+          <x14:formula1>
+            <xm:f>'C:\Users\r.bonannibott\Downloads\[Chase Transaction.xlsx]Changing Chase'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C799:C801 C679 C794:C797 C706:C715 C684 C677 C717:C718 C720:C748 C690:C691 C803:C806 C786:C792 C752:C755 C701:C704 C758:C766 C772:C773 C681 C694:C699 C769 C665:C675 C781:C784 C808:C815 C818:C827</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7DAE536-A9C7-4A0E-8BC2-DAAD3D4432A2}">
+          <x14:formula1>
+            <xm:f>Categories!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C664 C682 C686 C689 C693 C705 C716 C719 C756 C767 C774 C777 C779 C793 C798 C802 C807 C700</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{43100760-5721-4D75-A2C2-E15B5BA7C51A}">
+          <x14:formula1>
+            <xm:f>Categories!$A$1:$A$54</xm:f>
+          </x14:formula1>
+          <xm:sqref>C816:C817 C780 C678 C680 C683 C685 C687:C688 C749:C751 C757 C770:C771 C775:C776 C778 C828:C1048576 C676 C692 C768 C785 C2:C663</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B466524E-C1E6-4137-85E3-23F58D18F0BB}">
   <dimension ref="B1:C35"/>
   <sheetViews>
@@ -18790,7 +28065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63277CA-28E9-4B42-A466-47E5B215E1AB}">
   <dimension ref="A1:A30"/>
   <sheetViews>
@@ -18958,7 +28233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04957B4B-3667-473F-85A7-EBF92F0FF1E0}">
   <dimension ref="A2:I13"/>
   <sheetViews>
